--- a/code/tweets_data.xlsx
+++ b/code/tweets_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Python Quant\TrumpTweetsPrivate\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhang/Documents/GitHub/TrumpTweetsPrivate/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6249CC-9571-3A4A-A47C-8E400DBEFF70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="1983">
   <si>
     <t>created_at</t>
   </si>
@@ -5977,14 +5978,42 @@
   </si>
   <si>
     <t>“look how they’re acting now and how we act when we’re in the majority. what the democrats are doing is an abuse of power. they couldn’t find anything...they took a fake dossier &amp;amp; couldn’t find any collusion. now they have a fake witness in cohen.” congressman mark green, (r-tn).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Motors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uruge to invest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toyota</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorable news due to new progress of nafta deal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6016,7 +6045,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6039,11 +6068,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6053,6 +6091,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6072,7 +6113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6147,6 +6188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6182,6 +6240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6357,19 +6432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D892"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="4" width="33.75" style="3" customWidth="1"/>
+    <col min="2" max="4" width="33.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6379,8 +6454,17 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+      <c r="E1" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="150">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6394,7 +6478,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="90">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -6408,7 +6492,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="150">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -6422,7 +6506,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="135">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -6436,7 +6520,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="120">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -6450,7 +6534,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="150">
       <c r="A7" s="1">
         <v>28</v>
       </c>
@@ -6464,7 +6548,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="120">
       <c r="A8" s="1">
         <v>29</v>
       </c>
@@ -6478,7 +6562,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="75">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -6492,7 +6576,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -6506,7 +6590,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="75">
       <c r="A11" s="1">
         <v>64</v>
       </c>
@@ -6520,7 +6604,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="150">
       <c r="A12" s="1">
         <v>69</v>
       </c>
@@ -6534,7 +6618,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="75">
       <c r="A13" s="1">
         <v>71</v>
       </c>
@@ -6548,7 +6632,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="90">
       <c r="A14" s="1">
         <v>78</v>
       </c>
@@ -6562,7 +6646,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="1">
         <v>81</v>
       </c>
@@ -6576,7 +6660,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="120">
       <c r="A16" s="1">
         <v>82</v>
       </c>
@@ -6590,7 +6674,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="75">
       <c r="A17" s="1">
         <v>86</v>
       </c>
@@ -6604,7 +6688,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="150">
       <c r="A18" s="1">
         <v>90</v>
       </c>
@@ -6618,7 +6702,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="135">
       <c r="A19" s="1">
         <v>95</v>
       </c>
@@ -6632,7 +6716,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="150">
       <c r="A20" s="1">
         <v>102</v>
       </c>
@@ -6646,7 +6730,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="75">
       <c r="A21" s="1">
         <v>108</v>
       </c>
@@ -6660,7 +6744,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="45">
       <c r="A22" s="1">
         <v>117</v>
       </c>
@@ -6674,7 +6758,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="150">
       <c r="A23" s="1">
         <v>121</v>
       </c>
@@ -6688,7 +6772,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="75">
       <c r="A24" s="1">
         <v>130</v>
       </c>
@@ -6702,7 +6786,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="150">
       <c r="A25" s="1">
         <v>137</v>
       </c>
@@ -6716,7 +6800,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="150">
       <c r="A26" s="1">
         <v>139</v>
       </c>
@@ -6730,7 +6814,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="150">
       <c r="A27" s="1">
         <v>152</v>
       </c>
@@ -6744,7 +6828,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="150">
       <c r="A28" s="1">
         <v>154</v>
       </c>
@@ -6758,7 +6842,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="150">
       <c r="A29" s="1">
         <v>155</v>
       </c>
@@ -6772,7 +6856,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="165">
       <c r="A30" s="1">
         <v>158</v>
       </c>
@@ -6786,7 +6870,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="90">
       <c r="A31" s="1">
         <v>164</v>
       </c>
@@ -6800,7 +6884,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="135">
       <c r="A32" s="1">
         <v>165</v>
       </c>
@@ -6814,7 +6898,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="135">
       <c r="A33" s="1">
         <v>166</v>
       </c>
@@ -6828,7 +6912,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="150">
       <c r="A34" s="1">
         <v>170</v>
       </c>
@@ -6842,7 +6926,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="150">
       <c r="A35" s="1">
         <v>172</v>
       </c>
@@ -6856,7 +6940,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="135">
       <c r="A36" s="1">
         <v>181</v>
       </c>
@@ -6870,7 +6954,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="150">
       <c r="A37" s="1">
         <v>184</v>
       </c>
@@ -6884,7 +6968,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="75">
       <c r="A38" s="1">
         <v>197</v>
       </c>
@@ -6898,7 +6982,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="150">
       <c r="A39" s="1">
         <v>212</v>
       </c>
@@ -6912,7 +6996,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="105">
       <c r="A40" s="1">
         <v>220</v>
       </c>
@@ -6926,7 +7010,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="105">
       <c r="A41" s="1">
         <v>221</v>
       </c>
@@ -6940,7 +7024,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="90">
       <c r="A42" s="1">
         <v>227</v>
       </c>
@@ -6954,7 +7038,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="75">
       <c r="A43" s="1">
         <v>230</v>
       </c>
@@ -6968,7 +7052,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="135">
       <c r="A44" s="1">
         <v>239</v>
       </c>
@@ -6982,7 +7066,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="135">
       <c r="A45" s="1">
         <v>240</v>
       </c>
@@ -6996,7 +7080,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="105">
       <c r="A46" s="1">
         <v>263</v>
       </c>
@@ -7010,7 +7094,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="135">
       <c r="A47" s="1">
         <v>269</v>
       </c>
@@ -7024,7 +7108,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="150">
       <c r="A48" s="1">
         <v>274</v>
       </c>
@@ -7038,7 +7122,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="150">
       <c r="A49" s="1">
         <v>275</v>
       </c>
@@ -7052,7 +7136,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="105">
       <c r="A50" s="1">
         <v>294</v>
       </c>
@@ -7066,7 +7150,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="135">
       <c r="A51" s="1">
         <v>298</v>
       </c>
@@ -7080,7 +7164,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="150">
       <c r="A52" s="1">
         <v>299</v>
       </c>
@@ -7094,7 +7178,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="135">
       <c r="A53" s="1">
         <v>302</v>
       </c>
@@ -7108,7 +7192,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="60">
       <c r="A54" s="1">
         <v>315</v>
       </c>
@@ -7122,7 +7206,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="120">
       <c r="A55" s="1">
         <v>319</v>
       </c>
@@ -7136,7 +7220,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="150">
       <c r="A56" s="1">
         <v>325</v>
       </c>
@@ -7150,7 +7234,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="150">
       <c r="A57" s="1">
         <v>327</v>
       </c>
@@ -7164,7 +7248,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="150">
       <c r="A58" s="1">
         <v>328</v>
       </c>
@@ -7178,7 +7262,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="120">
       <c r="A59" s="1">
         <v>329</v>
       </c>
@@ -7192,7 +7276,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="135">
       <c r="A60" s="1">
         <v>339</v>
       </c>
@@ -7205,8 +7289,17 @@
       <c r="D60" s="3" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F60">
+        <v>-1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="75">
       <c r="A61" s="1">
         <v>344</v>
       </c>
@@ -7220,7 +7313,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="90">
       <c r="A62" s="1">
         <v>345</v>
       </c>
@@ -7234,7 +7327,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="75">
       <c r="A63" s="1">
         <v>367</v>
       </c>
@@ -7247,8 +7340,17 @@
       <c r="D63" s="3" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="150">
       <c r="A64" s="1">
         <v>372</v>
       </c>
@@ -7262,7 +7364,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="150">
       <c r="A65" s="1">
         <v>379</v>
       </c>
@@ -7276,7 +7378,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="75">
       <c r="A66" s="1">
         <v>386</v>
       </c>
@@ -7290,7 +7392,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="75">
       <c r="A67" s="1">
         <v>397</v>
       </c>
@@ -7304,7 +7406,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="75">
       <c r="A68" s="1">
         <v>398</v>
       </c>
@@ -7318,7 +7420,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="75">
       <c r="A69" s="1">
         <v>401</v>
       </c>
@@ -7332,7 +7434,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="75">
       <c r="A70" s="1">
         <v>404</v>
       </c>
@@ -7346,7 +7448,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="30">
       <c r="A71" s="1">
         <v>405</v>
       </c>
@@ -7360,7 +7462,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="90">
       <c r="A72" s="1">
         <v>410</v>
       </c>
@@ -7374,7 +7476,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="75">
       <c r="A73" s="1">
         <v>412</v>
       </c>
@@ -7388,7 +7490,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="105">
       <c r="A74" s="1">
         <v>414</v>
       </c>
@@ -7402,7 +7504,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="150">
       <c r="A75" s="1">
         <v>417</v>
       </c>
@@ -7416,7 +7518,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="150">
       <c r="A76" s="1">
         <v>418</v>
       </c>
@@ -7430,7 +7532,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="150">
       <c r="A77" s="1">
         <v>424</v>
       </c>
@@ -7444,7 +7546,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="75">
       <c r="A78" s="1">
         <v>427</v>
       </c>
@@ -7458,7 +7560,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="75">
       <c r="A79" s="1">
         <v>429</v>
       </c>
@@ -7472,7 +7574,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="120">
       <c r="A80" s="1">
         <v>435</v>
       </c>
@@ -7486,7 +7588,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="105">
       <c r="A81" s="1">
         <v>439</v>
       </c>
@@ -7500,7 +7602,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="30">
       <c r="A82" s="1">
         <v>448</v>
       </c>
@@ -7514,7 +7616,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="150">
       <c r="A83" s="1">
         <v>451</v>
       </c>
@@ -7528,7 +7630,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="75">
       <c r="A84" s="1">
         <v>453</v>
       </c>
@@ -7542,7 +7644,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="105">
       <c r="A85" s="1">
         <v>454</v>
       </c>
@@ -7556,7 +7658,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="105">
       <c r="A86" s="1">
         <v>482</v>
       </c>
@@ -7570,7 +7672,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="150">
       <c r="A87" s="1">
         <v>486</v>
       </c>
@@ -7584,7 +7686,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="105">
       <c r="A88" s="1">
         <v>509</v>
       </c>
@@ -7598,7 +7700,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="150">
       <c r="A89" s="1">
         <v>521</v>
       </c>
@@ -7612,7 +7714,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="150">
       <c r="A90" s="1">
         <v>522</v>
       </c>
@@ -7626,7 +7728,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="135">
       <c r="A91" s="1">
         <v>544</v>
       </c>
@@ -7640,7 +7742,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="135">
       <c r="A92" s="1">
         <v>545</v>
       </c>
@@ -7654,7 +7756,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="150">
       <c r="A93" s="1">
         <v>547</v>
       </c>
@@ -7668,7 +7770,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="90">
       <c r="A94" s="1">
         <v>554</v>
       </c>
@@ -7682,7 +7784,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="75">
       <c r="A95" s="1">
         <v>556</v>
       </c>
@@ -7696,7 +7798,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="75">
       <c r="A96" s="1">
         <v>558</v>
       </c>
@@ -7710,7 +7812,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="105">
       <c r="A97" s="1">
         <v>562</v>
       </c>
@@ -7724,7 +7826,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="150">
       <c r="A98" s="1">
         <v>566</v>
       </c>
@@ -7738,7 +7840,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="120">
       <c r="A99" s="1">
         <v>571</v>
       </c>
@@ -7752,7 +7854,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="135">
       <c r="A100" s="1">
         <v>584</v>
       </c>
@@ -7766,7 +7868,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="150">
       <c r="A101" s="1">
         <v>586</v>
       </c>
@@ -7780,7 +7882,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="90">
       <c r="A102" s="1">
         <v>597</v>
       </c>
@@ -7794,7 +7896,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="150">
       <c r="A103" s="1">
         <v>598</v>
       </c>
@@ -7808,7 +7910,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="165">
       <c r="A104" s="1">
         <v>599</v>
       </c>
@@ -7822,7 +7924,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="135">
       <c r="A105" s="1">
         <v>600</v>
       </c>
@@ -7836,7 +7938,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="105">
       <c r="A106" s="1">
         <v>602</v>
       </c>
@@ -7850,7 +7952,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="60">
       <c r="A107" s="1">
         <v>609</v>
       </c>
@@ -7864,7 +7966,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="150">
       <c r="A108" s="1">
         <v>614</v>
       </c>
@@ -7878,7 +7980,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="120">
       <c r="A109" s="1">
         <v>617</v>
       </c>
@@ -7892,7 +7994,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="150">
       <c r="A110" s="1">
         <v>622</v>
       </c>
@@ -7906,7 +8008,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="90">
       <c r="A111" s="1">
         <v>623</v>
       </c>
@@ -7920,7 +8022,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="75">
       <c r="A112" s="1">
         <v>639</v>
       </c>
@@ -7934,7 +8036,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="150">
       <c r="A113" s="1">
         <v>642</v>
       </c>
@@ -7948,7 +8050,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="150">
       <c r="A114" s="1">
         <v>648</v>
       </c>
@@ -7962,7 +8064,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="135">
       <c r="A115" s="1">
         <v>652</v>
       </c>
@@ -7976,7 +8078,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="150">
       <c r="A116" s="1">
         <v>654</v>
       </c>
@@ -7990,7 +8092,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="120">
       <c r="A117" s="1">
         <v>655</v>
       </c>
@@ -8004,7 +8106,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="135">
       <c r="A118" s="1">
         <v>668</v>
       </c>
@@ -8018,7 +8120,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="60">
       <c r="A119" s="1">
         <v>669</v>
       </c>
@@ -8032,7 +8134,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="150">
       <c r="A120" s="1">
         <v>674</v>
       </c>
@@ -8046,7 +8148,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="120">
       <c r="A121" s="1">
         <v>678</v>
       </c>
@@ -8060,7 +8162,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="105">
       <c r="A122" s="1">
         <v>690</v>
       </c>
@@ -8074,7 +8176,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="135">
       <c r="A123" s="1">
         <v>697</v>
       </c>
@@ -8088,7 +8190,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="75">
       <c r="A124" s="1">
         <v>710</v>
       </c>
@@ -8102,7 +8204,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="150">
       <c r="A125" s="1">
         <v>713</v>
       </c>
@@ -8116,7 +8218,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="150">
       <c r="A126" s="1">
         <v>720</v>
       </c>
@@ -8130,7 +8232,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="135">
       <c r="A127" s="1">
         <v>721</v>
       </c>
@@ -8144,7 +8246,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="75">
       <c r="A128" s="1">
         <v>727</v>
       </c>
@@ -8158,7 +8260,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="105">
       <c r="A129" s="1">
         <v>742</v>
       </c>
@@ -8172,7 +8274,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="150">
       <c r="A130" s="1">
         <v>755</v>
       </c>
@@ -8186,7 +8288,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="105">
       <c r="A131" s="1">
         <v>781</v>
       </c>
@@ -8200,7 +8302,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="150">
       <c r="A132" s="1">
         <v>787</v>
       </c>
@@ -8214,7 +8316,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="120">
       <c r="A133" s="1">
         <v>791</v>
       </c>
@@ -8228,7 +8330,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="105">
       <c r="A134" s="1">
         <v>794</v>
       </c>
@@ -8242,7 +8344,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="150">
       <c r="A135" s="1">
         <v>795</v>
       </c>
@@ -8256,7 +8358,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="150">
       <c r="A136" s="1">
         <v>803</v>
       </c>
@@ -8270,7 +8372,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="150">
       <c r="A137" s="1">
         <v>808</v>
       </c>
@@ -8284,7 +8386,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="60">
       <c r="A138" s="1">
         <v>809</v>
       </c>
@@ -8298,7 +8400,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="150">
       <c r="A139" s="1">
         <v>810</v>
       </c>
@@ -8312,7 +8414,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="150">
       <c r="A140" s="1">
         <v>811</v>
       </c>
@@ -8326,7 +8428,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="60">
       <c r="A141" s="1">
         <v>818</v>
       </c>
@@ -8340,7 +8442,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="150">
       <c r="A142" s="1">
         <v>819</v>
       </c>
@@ -8354,7 +8456,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="30">
       <c r="A143" s="1">
         <v>821</v>
       </c>
@@ -8368,7 +8470,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="150">
       <c r="A144" s="1">
         <v>823</v>
       </c>
@@ -8382,7 +8484,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="165">
       <c r="A145" s="1">
         <v>826</v>
       </c>
@@ -8396,7 +8498,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="120">
       <c r="A146" s="1">
         <v>830</v>
       </c>
@@ -8410,7 +8512,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="165">
       <c r="A147" s="1">
         <v>841</v>
       </c>
@@ -8424,7 +8526,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="30">
       <c r="A148" s="1">
         <v>844</v>
       </c>
@@ -8438,7 +8540,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="150">
       <c r="A149" s="1">
         <v>856</v>
       </c>
@@ -8452,7 +8554,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="135">
       <c r="A150" s="1">
         <v>858</v>
       </c>
@@ -8466,7 +8568,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="75">
       <c r="A151" s="1">
         <v>867</v>
       </c>
@@ -8480,7 +8582,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="135">
       <c r="A152" s="1">
         <v>872</v>
       </c>
@@ -8494,7 +8596,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="15">
       <c r="A153" s="1">
         <v>873</v>
       </c>
@@ -8508,7 +8610,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="150">
       <c r="A154" s="1">
         <v>875</v>
       </c>
@@ -8522,7 +8624,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="150">
       <c r="A155" s="1">
         <v>879</v>
       </c>
@@ -8536,7 +8638,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="135">
       <c r="A156" s="1">
         <v>880</v>
       </c>
@@ -8550,7 +8652,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="150">
       <c r="A157" s="1">
         <v>884</v>
       </c>
@@ -8564,7 +8666,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="90">
       <c r="A158" s="1">
         <v>887</v>
       </c>
@@ -8578,7 +8680,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="150">
       <c r="A159" s="1">
         <v>888</v>
       </c>
@@ -8592,7 +8694,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="150">
       <c r="A160" s="1">
         <v>892</v>
       </c>
@@ -8606,7 +8708,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="150">
       <c r="A161" s="1">
         <v>902</v>
       </c>
@@ -8620,7 +8722,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="135">
       <c r="A162" s="1">
         <v>906</v>
       </c>
@@ -8634,7 +8736,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="150">
       <c r="A163" s="1">
         <v>908</v>
       </c>
@@ -8648,7 +8750,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="150">
       <c r="A164" s="1">
         <v>909</v>
       </c>
@@ -8662,7 +8764,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="75">
       <c r="A165" s="1">
         <v>925</v>
       </c>
@@ -8676,7 +8778,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="120">
       <c r="A166" s="1">
         <v>928</v>
       </c>
@@ -8690,7 +8792,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="75">
       <c r="A167" s="1">
         <v>933</v>
       </c>
@@ -8704,7 +8806,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="30">
       <c r="A168" s="1">
         <v>938</v>
       </c>
@@ -8718,7 +8820,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="75">
       <c r="A169" s="1">
         <v>953</v>
       </c>
@@ -8732,7 +8834,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="135">
       <c r="A170" s="1">
         <v>969</v>
       </c>
@@ -8746,7 +8848,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="150">
       <c r="A171" s="1">
         <v>976</v>
       </c>
@@ -8760,7 +8862,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="60">
       <c r="A172" s="1">
         <v>977</v>
       </c>
@@ -8774,7 +8876,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="75">
       <c r="A173" s="1">
         <v>979</v>
       </c>
@@ -8788,7 +8890,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="135">
       <c r="A174" s="1">
         <v>981</v>
       </c>
@@ -8802,7 +8904,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="90">
       <c r="A175" s="1">
         <v>991</v>
       </c>
@@ -8816,7 +8918,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="75">
       <c r="A176" s="1">
         <v>992</v>
       </c>
@@ -8830,7 +8932,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="105">
       <c r="A177" s="1">
         <v>1006</v>
       </c>
@@ -8844,7 +8946,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="75">
       <c r="A178" s="1">
         <v>1010</v>
       </c>
@@ -8858,7 +8960,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="75">
       <c r="A179" s="1">
         <v>1012</v>
       </c>
@@ -8872,7 +8974,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="75">
       <c r="A180" s="1">
         <v>1028</v>
       </c>
@@ -8886,7 +8988,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="90">
       <c r="A181" s="1">
         <v>1032</v>
       </c>
@@ -8900,7 +9002,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="135">
       <c r="A182" s="1">
         <v>1034</v>
       </c>
@@ -8914,7 +9016,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="90">
       <c r="A183" s="1">
         <v>1035</v>
       </c>
@@ -8928,7 +9030,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="90">
       <c r="A184" s="1">
         <v>1056</v>
       </c>
@@ -8942,7 +9044,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="150">
       <c r="A185" s="1">
         <v>1059</v>
       </c>
@@ -8956,7 +9058,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="150">
       <c r="A186" s="1">
         <v>1060</v>
       </c>
@@ -8970,7 +9072,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="150">
       <c r="A187" s="1">
         <v>1063</v>
       </c>
@@ -8984,7 +9086,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="150">
       <c r="A188" s="1">
         <v>1076</v>
       </c>
@@ -8998,7 +9100,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="150">
       <c r="A189" s="1">
         <v>1079</v>
       </c>
@@ -9012,7 +9114,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="150">
       <c r="A190" s="1">
         <v>1080</v>
       </c>
@@ -9026,7 +9128,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="150">
       <c r="A191" s="1">
         <v>1081</v>
       </c>
@@ -9040,7 +9142,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="120">
       <c r="A192" s="1">
         <v>1083</v>
       </c>
@@ -9054,7 +9156,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="150">
       <c r="A193" s="1">
         <v>1090</v>
       </c>
@@ -9068,7 +9170,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" ht="120">
       <c r="A194" s="1">
         <v>1110</v>
       </c>
@@ -9082,7 +9184,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" ht="135">
       <c r="A195" s="1">
         <v>1113</v>
       </c>
@@ -9096,7 +9198,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" ht="135">
       <c r="A196" s="1">
         <v>1115</v>
       </c>
@@ -9110,7 +9212,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" ht="135">
       <c r="A197" s="1">
         <v>1116</v>
       </c>
@@ -9124,7 +9226,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" ht="135">
       <c r="A198" s="1">
         <v>1127</v>
       </c>
@@ -9138,7 +9240,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="120">
       <c r="A199" s="1">
         <v>1142</v>
       </c>
@@ -9152,7 +9254,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="150">
       <c r="A200" s="1">
         <v>1145</v>
       </c>
@@ -9166,7 +9268,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" ht="60">
       <c r="A201" s="1">
         <v>1154</v>
       </c>
@@ -9180,7 +9282,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" ht="60">
       <c r="A202" s="1">
         <v>1167</v>
       </c>
@@ -9194,7 +9296,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" ht="60">
       <c r="A203" s="1">
         <v>1176</v>
       </c>
@@ -9208,7 +9310,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" ht="150">
       <c r="A204" s="1">
         <v>1200</v>
       </c>
@@ -9222,7 +9324,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" ht="150">
       <c r="A205" s="1">
         <v>1204</v>
       </c>
@@ -9236,7 +9338,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" ht="120">
       <c r="A206" s="1">
         <v>1206</v>
       </c>
@@ -9250,7 +9352,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" ht="150">
       <c r="A207" s="1">
         <v>1217</v>
       </c>
@@ -9264,7 +9366,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="150">
       <c r="A208" s="1">
         <v>1223</v>
       </c>
@@ -9278,7 +9380,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" ht="150">
       <c r="A209" s="1">
         <v>1224</v>
       </c>
@@ -9292,7 +9394,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" ht="135">
       <c r="A210" s="1">
         <v>1236</v>
       </c>
@@ -9306,7 +9408,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="105">
       <c r="A211" s="1">
         <v>1251</v>
       </c>
@@ -9320,7 +9422,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" ht="135">
       <c r="A212" s="1">
         <v>1252</v>
       </c>
@@ -9334,7 +9436,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" ht="135">
       <c r="A213" s="1">
         <v>1258</v>
       </c>
@@ -9348,7 +9450,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="150">
       <c r="A214" s="1">
         <v>1260</v>
       </c>
@@ -9362,7 +9464,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="150">
       <c r="A215" s="1">
         <v>1262</v>
       </c>
@@ -9376,7 +9478,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" ht="150">
       <c r="A216" s="1">
         <v>1263</v>
       </c>
@@ -9390,7 +9492,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" ht="135">
       <c r="A217" s="1">
         <v>1264</v>
       </c>
@@ -9404,7 +9506,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" ht="150">
       <c r="A218" s="1">
         <v>1266</v>
       </c>
@@ -9418,7 +9520,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" ht="150">
       <c r="A219" s="1">
         <v>1273</v>
       </c>
@@ -9432,7 +9534,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" ht="75">
       <c r="A220" s="1">
         <v>1279</v>
       </c>
@@ -9446,7 +9548,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" ht="150">
       <c r="A221" s="1">
         <v>1302</v>
       </c>
@@ -9460,7 +9562,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" ht="75">
       <c r="A222" s="1">
         <v>1305</v>
       </c>
@@ -9474,7 +9576,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" ht="150">
       <c r="A223" s="1">
         <v>1310</v>
       </c>
@@ -9488,7 +9590,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" ht="150">
       <c r="A224" s="1">
         <v>1313</v>
       </c>
@@ -9502,7 +9604,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" ht="60">
       <c r="A225" s="1">
         <v>1315</v>
       </c>
@@ -9516,7 +9618,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" ht="120">
       <c r="A226" s="1">
         <v>1324</v>
       </c>
@@ -9530,7 +9632,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" ht="90">
       <c r="A227" s="1">
         <v>1325</v>
       </c>
@@ -9544,7 +9646,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" ht="150">
       <c r="A228" s="1">
         <v>1332</v>
       </c>
@@ -9558,7 +9660,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4" ht="150">
       <c r="A229" s="1">
         <v>1336</v>
       </c>
@@ -9572,7 +9674,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" ht="150">
       <c r="A230" s="1">
         <v>1338</v>
       </c>
@@ -9586,7 +9688,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4" ht="150">
       <c r="A231" s="1">
         <v>1339</v>
       </c>
@@ -9600,7 +9702,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4" ht="120">
       <c r="A232" s="1">
         <v>1342</v>
       </c>
@@ -9614,7 +9716,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4" ht="150">
       <c r="A233" s="1">
         <v>1345</v>
       </c>
@@ -9628,7 +9730,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4" ht="150">
       <c r="A234" s="1">
         <v>1346</v>
       </c>
@@ -9642,7 +9744,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4" ht="150">
       <c r="A235" s="1">
         <v>1353</v>
       </c>
@@ -9656,7 +9758,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4" ht="150">
       <c r="A236" s="1">
         <v>1354</v>
       </c>
@@ -9670,7 +9772,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4" ht="120">
       <c r="A237" s="1">
         <v>1356</v>
       </c>
@@ -9684,7 +9786,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4" ht="150">
       <c r="A238" s="1">
         <v>1365</v>
       </c>
@@ -9698,7 +9800,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4" ht="15">
       <c r="A239" s="1">
         <v>1377</v>
       </c>
@@ -9712,7 +9814,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4" ht="135">
       <c r="A240" s="1">
         <v>1389</v>
       </c>
@@ -9726,7 +9828,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" ht="90">
       <c r="A241" s="1">
         <v>1398</v>
       </c>
@@ -9740,7 +9842,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" ht="120">
       <c r="A242" s="1">
         <v>1399</v>
       </c>
@@ -9754,7 +9856,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" ht="135">
       <c r="A243" s="1">
         <v>1400</v>
       </c>
@@ -9768,7 +9870,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" ht="150">
       <c r="A244" s="1">
         <v>1401</v>
       </c>
@@ -9782,7 +9884,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" ht="150">
       <c r="A245" s="1">
         <v>1404</v>
       </c>
@@ -9796,7 +9898,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" ht="135">
       <c r="A246" s="1">
         <v>1405</v>
       </c>
@@ -9810,7 +9912,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" ht="135">
       <c r="A247" s="1">
         <v>1412</v>
       </c>
@@ -9824,7 +9926,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" ht="150">
       <c r="A248" s="1">
         <v>1417</v>
       </c>
@@ -9838,7 +9940,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" ht="135">
       <c r="A249" s="1">
         <v>1420</v>
       </c>
@@ -9852,7 +9954,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" ht="120">
       <c r="A250" s="1">
         <v>1429</v>
       </c>
@@ -9866,7 +9968,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" ht="150">
       <c r="A251" s="1">
         <v>1432</v>
       </c>
@@ -9880,7 +9982,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" ht="150">
       <c r="A252" s="1">
         <v>1434</v>
       </c>
@@ -9894,7 +9996,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" ht="150">
       <c r="A253" s="1">
         <v>1435</v>
       </c>
@@ -9908,7 +10010,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" ht="150">
       <c r="A254" s="1">
         <v>1438</v>
       </c>
@@ -9922,7 +10024,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" ht="150">
       <c r="A255" s="1">
         <v>1439</v>
       </c>
@@ -9936,7 +10038,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" ht="135">
       <c r="A256" s="1">
         <v>1443</v>
       </c>
@@ -9950,7 +10052,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" ht="135">
       <c r="A257" s="1">
         <v>1450</v>
       </c>
@@ -9964,7 +10066,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" ht="45">
       <c r="A258" s="1">
         <v>1451</v>
       </c>
@@ -9978,7 +10080,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" ht="150">
       <c r="A259" s="1">
         <v>1452</v>
       </c>
@@ -9992,7 +10094,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" ht="150">
       <c r="A260" s="1">
         <v>1456</v>
       </c>
@@ -10006,7 +10108,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" ht="150">
       <c r="A261" s="1">
         <v>1460</v>
       </c>
@@ -10020,7 +10122,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" ht="150">
       <c r="A262" s="1">
         <v>1462</v>
       </c>
@@ -10034,7 +10136,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" ht="120">
       <c r="A263" s="1">
         <v>1465</v>
       </c>
@@ -10048,7 +10150,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" ht="75">
       <c r="A264" s="1">
         <v>1481</v>
       </c>
@@ -10062,7 +10164,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" ht="120">
       <c r="A265" s="1">
         <v>1489</v>
       </c>
@@ -10076,7 +10178,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" ht="75">
       <c r="A266" s="1">
         <v>1492</v>
       </c>
@@ -10090,7 +10192,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" ht="150">
       <c r="A267" s="1">
         <v>1496</v>
       </c>
@@ -10104,7 +10206,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" ht="120">
       <c r="A268" s="1">
         <v>1498</v>
       </c>
@@ -10118,7 +10220,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" ht="120">
       <c r="A269" s="1">
         <v>1500</v>
       </c>
@@ -10132,7 +10234,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" ht="90">
       <c r="A270" s="1">
         <v>1503</v>
       </c>
@@ -10146,7 +10248,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" ht="150">
       <c r="A271" s="1">
         <v>1504</v>
       </c>
@@ -10160,7 +10262,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" ht="150">
       <c r="A272" s="1">
         <v>1508</v>
       </c>
@@ -10174,7 +10276,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" ht="135">
       <c r="A273" s="1">
         <v>1510</v>
       </c>
@@ -10188,7 +10290,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" ht="60">
       <c r="A274" s="1">
         <v>1511</v>
       </c>
@@ -10202,7 +10304,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" ht="135">
       <c r="A275" s="1">
         <v>1513</v>
       </c>
@@ -10216,7 +10318,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" ht="135">
       <c r="A276" s="1">
         <v>1514</v>
       </c>
@@ -10230,7 +10332,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" ht="150">
       <c r="A277" s="1">
         <v>1515</v>
       </c>
@@ -10244,7 +10346,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" ht="75">
       <c r="A278" s="1">
         <v>1517</v>
       </c>
@@ -10258,7 +10360,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" ht="150">
       <c r="A279" s="1">
         <v>1524</v>
       </c>
@@ -10272,7 +10374,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" ht="60">
       <c r="A280" s="1">
         <v>1525</v>
       </c>
@@ -10286,7 +10388,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" ht="150">
       <c r="A281" s="1">
         <v>1527</v>
       </c>
@@ -10300,7 +10402,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" ht="105">
       <c r="A282" s="1">
         <v>1528</v>
       </c>
@@ -10314,7 +10416,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" ht="150">
       <c r="A283" s="1">
         <v>1529</v>
       </c>
@@ -10328,7 +10430,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" ht="60">
       <c r="A284" s="1">
         <v>1530</v>
       </c>
@@ -10342,7 +10444,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" ht="150">
       <c r="A285" s="1">
         <v>1531</v>
       </c>
@@ -10356,7 +10458,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" ht="150">
       <c r="A286" s="1">
         <v>1533</v>
       </c>
@@ -10370,7 +10472,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" ht="90">
       <c r="A287" s="1">
         <v>1539</v>
       </c>
@@ -10384,7 +10486,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" ht="135">
       <c r="A288" s="1">
         <v>1541</v>
       </c>
@@ -10398,7 +10500,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" ht="135">
       <c r="A289" s="1">
         <v>1547</v>
       </c>
@@ -10412,7 +10514,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" ht="135">
       <c r="A290" s="1">
         <v>1553</v>
       </c>
@@ -10426,7 +10528,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" ht="150">
       <c r="A291" s="1">
         <v>1554</v>
       </c>
@@ -10440,7 +10542,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" ht="150">
       <c r="A292" s="1">
         <v>1560</v>
       </c>
@@ -10454,7 +10556,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" ht="60">
       <c r="A293" s="1">
         <v>1573</v>
       </c>
@@ -10468,7 +10570,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" ht="120">
       <c r="A294" s="1">
         <v>1577</v>
       </c>
@@ -10482,7 +10584,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" ht="135">
       <c r="A295" s="1">
         <v>1588</v>
       </c>
@@ -10496,7 +10598,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" ht="75">
       <c r="A296" s="1">
         <v>1589</v>
       </c>
@@ -10510,7 +10612,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" ht="135">
       <c r="A297" s="1">
         <v>1600</v>
       </c>
@@ -10524,7 +10626,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" ht="150">
       <c r="A298" s="1">
         <v>1620</v>
       </c>
@@ -10538,7 +10640,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" ht="180">
       <c r="A299" s="1">
         <v>1622</v>
       </c>
@@ -10552,7 +10654,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" ht="135">
       <c r="A300" s="1">
         <v>1626</v>
       </c>
@@ -10566,7 +10668,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" ht="120">
       <c r="A301" s="1">
         <v>1635</v>
       </c>
@@ -10580,7 +10682,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" ht="60">
       <c r="A302" s="1">
         <v>1648</v>
       </c>
@@ -10594,7 +10696,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" ht="135">
       <c r="A303" s="1">
         <v>1649</v>
       </c>
@@ -10608,7 +10710,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" ht="60">
       <c r="A304" s="1">
         <v>1662</v>
       </c>
@@ -10622,7 +10724,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4" ht="150">
       <c r="A305" s="1">
         <v>1669</v>
       </c>
@@ -10636,7 +10738,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4" ht="120">
       <c r="A306" s="1">
         <v>1688</v>
       </c>
@@ -10650,7 +10752,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4" ht="150">
       <c r="A307" s="1">
         <v>1690</v>
       </c>
@@ -10664,7 +10766,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4" ht="60">
       <c r="A308" s="1">
         <v>1700</v>
       </c>
@@ -10678,7 +10780,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4" ht="75">
       <c r="A309" s="1">
         <v>1719</v>
       </c>
@@ -10692,7 +10794,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4" ht="165">
       <c r="A310" s="1">
         <v>1726</v>
       </c>
@@ -10706,7 +10808,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" ht="150">
       <c r="A311" s="1">
         <v>1744</v>
       </c>
@@ -10720,7 +10822,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4" ht="135">
       <c r="A312" s="1">
         <v>1747</v>
       </c>
@@ -10734,7 +10836,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4" ht="150">
       <c r="A313" s="1">
         <v>1748</v>
       </c>
@@ -10748,7 +10850,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4" ht="135">
       <c r="A314" s="1">
         <v>1749</v>
       </c>
@@ -10762,7 +10864,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:4" ht="75">
       <c r="A315" s="1">
         <v>1767</v>
       </c>
@@ -10776,7 +10878,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4" ht="75">
       <c r="A316" s="1">
         <v>1776</v>
       </c>
@@ -10790,7 +10892,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4" ht="75">
       <c r="A317" s="1">
         <v>1778</v>
       </c>
@@ -10804,7 +10906,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4" ht="90">
       <c r="A318" s="1">
         <v>1783</v>
       </c>
@@ -10818,7 +10920,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4" ht="165">
       <c r="A319" s="1">
         <v>1789</v>
       </c>
@@ -10832,7 +10934,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4" ht="75">
       <c r="A320" s="1">
         <v>1790</v>
       </c>
@@ -10846,7 +10948,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4" ht="105">
       <c r="A321" s="1">
         <v>1799</v>
       </c>
@@ -10860,7 +10962,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4" ht="90">
       <c r="A322" s="1">
         <v>1804</v>
       </c>
@@ -10874,7 +10976,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4" ht="165">
       <c r="A323" s="1">
         <v>1813</v>
       </c>
@@ -10888,7 +10990,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4" ht="135">
       <c r="A324" s="1">
         <v>1816</v>
       </c>
@@ -10902,7 +11004,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4" ht="150">
       <c r="A325" s="1">
         <v>1835</v>
       </c>
@@ -10916,7 +11018,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4" ht="150">
       <c r="A326" s="1">
         <v>1840</v>
       </c>
@@ -10930,7 +11032,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4" ht="90">
       <c r="A327" s="1">
         <v>1841</v>
       </c>
@@ -10944,7 +11046,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" ht="105">
       <c r="A328" s="1">
         <v>1845</v>
       </c>
@@ -10958,7 +11060,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4" ht="150">
       <c r="A329" s="1">
         <v>1864</v>
       </c>
@@ -10972,7 +11074,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4" ht="150">
       <c r="A330" s="1">
         <v>1871</v>
       </c>
@@ -10986,7 +11088,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4" ht="150">
       <c r="A331" s="1">
         <v>1875</v>
       </c>
@@ -11000,7 +11102,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4" ht="150">
       <c r="A332" s="1">
         <v>1897</v>
       </c>
@@ -11014,7 +11116,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4" ht="105">
       <c r="A333" s="1">
         <v>1907</v>
       </c>
@@ -11028,7 +11130,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4" ht="150">
       <c r="A334" s="1">
         <v>1916</v>
       </c>
@@ -11042,7 +11144,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4" ht="120">
       <c r="A335" s="1">
         <v>1938</v>
       </c>
@@ -11056,7 +11158,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4" ht="135">
       <c r="A336" s="1">
         <v>1939</v>
       </c>
@@ -11070,7 +11172,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" ht="105">
       <c r="A337" s="1">
         <v>1947</v>
       </c>
@@ -11084,7 +11186,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" ht="90">
       <c r="A338" s="1">
         <v>1993</v>
       </c>
@@ -11098,7 +11200,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" ht="150">
       <c r="A339" s="1">
         <v>1996</v>
       </c>
@@ -11112,7 +11214,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" ht="150">
       <c r="A340" s="1">
         <v>1997</v>
       </c>
@@ -11126,7 +11228,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" ht="150">
       <c r="A341" s="1">
         <v>2003</v>
       </c>
@@ -11140,7 +11242,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" ht="150">
       <c r="A342" s="1">
         <v>2022</v>
       </c>
@@ -11154,7 +11256,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" ht="135">
       <c r="A343" s="1">
         <v>2025</v>
       </c>
@@ -11168,7 +11270,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" ht="90">
       <c r="A344" s="1">
         <v>2027</v>
       </c>
@@ -11182,7 +11284,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" ht="135">
       <c r="A345" s="1">
         <v>2030</v>
       </c>
@@ -11196,7 +11298,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" ht="150">
       <c r="A346" s="1">
         <v>2031</v>
       </c>
@@ -11210,7 +11312,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" ht="150">
       <c r="A347" s="1">
         <v>2039</v>
       </c>
@@ -11224,7 +11326,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" ht="150">
       <c r="A348" s="1">
         <v>2058</v>
       </c>
@@ -11238,7 +11340,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" ht="150">
       <c r="A349" s="1">
         <v>2060</v>
       </c>
@@ -11252,7 +11354,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" ht="30">
       <c r="A350" s="1">
         <v>2063</v>
       </c>
@@ -11266,7 +11368,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" ht="150">
       <c r="A351" s="1">
         <v>2066</v>
       </c>
@@ -11280,7 +11382,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" ht="60">
       <c r="A352" s="1">
         <v>2067</v>
       </c>
@@ -11294,7 +11396,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" ht="30">
       <c r="A353" s="1">
         <v>2081</v>
       </c>
@@ -11308,7 +11410,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" ht="60">
       <c r="A354" s="1">
         <v>2082</v>
       </c>
@@ -11322,7 +11424,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" ht="75">
       <c r="A355" s="1">
         <v>2087</v>
       </c>
@@ -11336,7 +11438,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" ht="150">
       <c r="A356" s="1">
         <v>2105</v>
       </c>
@@ -11350,7 +11452,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" ht="75">
       <c r="A357" s="1">
         <v>2115</v>
       </c>
@@ -11364,7 +11466,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" ht="105">
       <c r="A358" s="1">
         <v>2135</v>
       </c>
@@ -11378,7 +11480,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" ht="120">
       <c r="A359" s="1">
         <v>2147</v>
       </c>
@@ -11392,7 +11494,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" ht="45">
       <c r="A360" s="1">
         <v>2148</v>
       </c>
@@ -11406,7 +11508,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" ht="45">
       <c r="A361" s="1">
         <v>2149</v>
       </c>
@@ -11420,7 +11522,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" ht="150">
       <c r="A362" s="1">
         <v>2150</v>
       </c>
@@ -11434,7 +11536,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" ht="150">
       <c r="A363" s="1">
         <v>2154</v>
       </c>
@@ -11448,7 +11550,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" ht="60">
       <c r="A364" s="1">
         <v>2158</v>
       </c>
@@ -11462,7 +11564,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" ht="75">
       <c r="A365" s="1">
         <v>2161</v>
       </c>
@@ -11476,7 +11578,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" ht="30">
       <c r="A366" s="1">
         <v>2168</v>
       </c>
@@ -11490,7 +11592,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" ht="135">
       <c r="A367" s="1">
         <v>2172</v>
       </c>
@@ -11504,7 +11606,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" ht="75">
       <c r="A368" s="1">
         <v>2196</v>
       </c>
@@ -11518,7 +11620,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" ht="45">
       <c r="A369" s="1">
         <v>2199</v>
       </c>
@@ -11532,7 +11634,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" ht="150">
       <c r="A370" s="1">
         <v>2211</v>
       </c>
@@ -11546,7 +11648,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" ht="150">
       <c r="A371" s="1">
         <v>2212</v>
       </c>
@@ -11560,7 +11662,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" ht="60">
       <c r="A372" s="1">
         <v>2216</v>
       </c>
@@ -11574,7 +11676,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" ht="75">
       <c r="A373" s="1">
         <v>2227</v>
       </c>
@@ -11588,7 +11690,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" ht="135">
       <c r="A374" s="1">
         <v>2228</v>
       </c>
@@ -11602,7 +11704,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" ht="150">
       <c r="A375" s="1">
         <v>2229</v>
       </c>
@@ -11616,7 +11718,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" ht="90">
       <c r="A376" s="1">
         <v>2257</v>
       </c>
@@ -11630,7 +11732,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" ht="75">
       <c r="A377" s="1">
         <v>2258</v>
       </c>
@@ -11644,7 +11746,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" ht="105">
       <c r="A378" s="1">
         <v>2259</v>
       </c>
@@ -11658,7 +11760,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" ht="75">
       <c r="A379" s="1">
         <v>2279</v>
       </c>
@@ -11672,7 +11774,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" ht="150">
       <c r="A380" s="1">
         <v>2291</v>
       </c>
@@ -11686,7 +11788,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" ht="120">
       <c r="A381" s="1">
         <v>2296</v>
       </c>
@@ -11700,7 +11802,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" ht="90">
       <c r="A382" s="1">
         <v>2300</v>
       </c>
@@ -11714,7 +11816,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" ht="90">
       <c r="A383" s="1">
         <v>2301</v>
       </c>
@@ -11728,7 +11830,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" ht="105">
       <c r="A384" s="1">
         <v>2315</v>
       </c>
@@ -11742,7 +11844,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4" ht="75">
       <c r="A385" s="1">
         <v>2317</v>
       </c>
@@ -11756,7 +11858,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:4" ht="150">
       <c r="A386" s="1">
         <v>2330</v>
       </c>
@@ -11770,7 +11872,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4" ht="135">
       <c r="A387" s="1">
         <v>2332</v>
       </c>
@@ -11784,7 +11886,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4" ht="120">
       <c r="A388" s="1">
         <v>2333</v>
       </c>
@@ -11798,7 +11900,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" ht="120">
       <c r="A389" s="1">
         <v>2337</v>
       </c>
@@ -11812,7 +11914,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" ht="120">
       <c r="A390" s="1">
         <v>2339</v>
       </c>
@@ -11826,7 +11928,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4" ht="150">
       <c r="A391" s="1">
         <v>2342</v>
       </c>
@@ -11840,7 +11942,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4" ht="75">
       <c r="A392" s="1">
         <v>2346</v>
       </c>
@@ -11854,7 +11956,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4" ht="75">
       <c r="A393" s="1">
         <v>2351</v>
       </c>
@@ -11868,7 +11970,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4" ht="75">
       <c r="A394" s="1">
         <v>2352</v>
       </c>
@@ -11882,7 +11984,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:4" ht="75">
       <c r="A395" s="1">
         <v>2356</v>
       </c>
@@ -11896,7 +11998,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:4" ht="60">
       <c r="A396" s="1">
         <v>2364</v>
       </c>
@@ -11910,7 +12012,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:4" ht="135">
       <c r="A397" s="1">
         <v>2368</v>
       </c>
@@ -11924,7 +12026,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:4" ht="150">
       <c r="A398" s="1">
         <v>2373</v>
       </c>
@@ -11938,7 +12040,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:4" ht="135">
       <c r="A399" s="1">
         <v>2381</v>
       </c>
@@ -11952,7 +12054,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:4" ht="150">
       <c r="A400" s="1">
         <v>2386</v>
       </c>
@@ -11966,7 +12068,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:4" ht="75">
       <c r="A401" s="1">
         <v>2388</v>
       </c>
@@ -11980,7 +12082,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:4" ht="105">
       <c r="A402" s="1">
         <v>2400</v>
       </c>
@@ -11994,7 +12096,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:4" ht="75">
       <c r="A403" s="1">
         <v>2401</v>
       </c>
@@ -12008,7 +12110,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:4" ht="90">
       <c r="A404" s="1">
         <v>2408</v>
       </c>
@@ -12022,7 +12124,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:4" ht="150">
       <c r="A405" s="1">
         <v>2420</v>
       </c>
@@ -12036,7 +12138,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:4" ht="150">
       <c r="A406" s="1">
         <v>2424</v>
       </c>
@@ -12050,7 +12152,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:4" ht="150">
       <c r="A407" s="1">
         <v>2432</v>
       </c>
@@ -12064,7 +12166,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:4" ht="75">
       <c r="A408" s="1">
         <v>2433</v>
       </c>
@@ -12078,7 +12180,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:4" ht="150">
       <c r="A409" s="1">
         <v>2441</v>
       </c>
@@ -12092,7 +12194,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:4" ht="120">
       <c r="A410" s="1">
         <v>2442</v>
       </c>
@@ -12106,7 +12208,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:4" ht="135">
       <c r="A411" s="1">
         <v>2443</v>
       </c>
@@ -12120,7 +12222,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:4" ht="150">
       <c r="A412" s="1">
         <v>2444</v>
       </c>
@@ -12134,7 +12236,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:4" ht="120">
       <c r="A413" s="1">
         <v>2458</v>
       </c>
@@ -12148,7 +12250,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:4" ht="150">
       <c r="A414" s="1">
         <v>2462</v>
       </c>
@@ -12162,7 +12264,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:4" ht="60">
       <c r="A415" s="1">
         <v>2469</v>
       </c>
@@ -12176,7 +12278,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:4" ht="150">
       <c r="A416" s="1">
         <v>2483</v>
       </c>
@@ -12190,7 +12292,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:4" ht="120">
       <c r="A417" s="1">
         <v>2486</v>
       </c>
@@ -12204,7 +12306,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:4" ht="150">
       <c r="A418" s="1">
         <v>2495</v>
       </c>
@@ -12218,7 +12320,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:4" ht="150">
       <c r="A419" s="1">
         <v>2499</v>
       </c>
@@ -12232,7 +12334,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:4" ht="105">
       <c r="A420" s="1">
         <v>2505</v>
       </c>
@@ -12246,7 +12348,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:4" ht="15">
       <c r="A421" s="1">
         <v>2512</v>
       </c>
@@ -12260,7 +12362,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:4" ht="120">
       <c r="A422" s="1">
         <v>2519</v>
       </c>
@@ -12274,7 +12376,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:4" ht="135">
       <c r="A423" s="1">
         <v>2531</v>
       </c>
@@ -12288,7 +12390,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" ht="135">
       <c r="A424" s="1">
         <v>2538</v>
       </c>
@@ -12302,7 +12404,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" ht="150">
       <c r="A425" s="1">
         <v>2539</v>
       </c>
@@ -12316,7 +12418,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" ht="45">
       <c r="A426" s="1">
         <v>2542</v>
       </c>
@@ -12330,7 +12432,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" ht="105">
       <c r="A427" s="1">
         <v>2552</v>
       </c>
@@ -12344,7 +12446,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" ht="150">
       <c r="A428" s="1">
         <v>2554</v>
       </c>
@@ -12358,7 +12460,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" ht="75">
       <c r="A429" s="1">
         <v>2556</v>
       </c>
@@ -12372,7 +12474,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" ht="150">
       <c r="A430" s="1">
         <v>2568</v>
       </c>
@@ -12386,7 +12488,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" ht="60">
       <c r="A431" s="1">
         <v>2571</v>
       </c>
@@ -12400,7 +12502,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" ht="150">
       <c r="A432" s="1">
         <v>2572</v>
       </c>
@@ -12414,7 +12516,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" ht="120">
       <c r="A433" s="1">
         <v>2573</v>
       </c>
@@ -12428,7 +12530,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" ht="150">
       <c r="A434" s="1">
         <v>2574</v>
       </c>
@@ -12442,7 +12544,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" ht="150">
       <c r="A435" s="1">
         <v>2575</v>
       </c>
@@ -12456,7 +12558,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" ht="45">
       <c r="A436" s="1">
         <v>2576</v>
       </c>
@@ -12470,7 +12572,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" ht="165">
       <c r="A437" s="1">
         <v>2583</v>
       </c>
@@ -12484,7 +12586,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:4" ht="60">
       <c r="A438" s="1">
         <v>2602</v>
       </c>
@@ -12498,7 +12600,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:4" ht="60">
       <c r="A439" s="1">
         <v>2605</v>
       </c>
@@ -12512,7 +12614,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:4" ht="120">
       <c r="A440" s="1">
         <v>2607</v>
       </c>
@@ -12526,7 +12628,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:4" ht="60">
       <c r="A441" s="1">
         <v>2621</v>
       </c>
@@ -12540,7 +12642,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:4" ht="90">
       <c r="A442" s="1">
         <v>2628</v>
       </c>
@@ -12554,7 +12656,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:4" ht="150">
       <c r="A443" s="1">
         <v>2632</v>
       </c>
@@ -12568,7 +12670,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:4" ht="90">
       <c r="A444" s="1">
         <v>2633</v>
       </c>
@@ -12582,7 +12684,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:4" ht="120">
       <c r="A445" s="1">
         <v>2636</v>
       </c>
@@ -12596,7 +12698,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:4" ht="150">
       <c r="A446" s="1">
         <v>2641</v>
       </c>
@@ -12610,7 +12712,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:4" ht="150">
       <c r="A447" s="1">
         <v>2646</v>
       </c>
@@ -12624,7 +12726,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:4" ht="135">
       <c r="A448" s="1">
         <v>2674</v>
       </c>
@@ -12638,7 +12740,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:4" ht="135">
       <c r="A449" s="1">
         <v>2679</v>
       </c>
@@ -12652,7 +12754,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:4" ht="90">
       <c r="A450" s="1">
         <v>2686</v>
       </c>
@@ -12666,7 +12768,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:4" ht="150">
       <c r="A451" s="1">
         <v>2690</v>
       </c>
@@ -12680,7 +12782,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:4" ht="90">
       <c r="A452" s="1">
         <v>2696</v>
       </c>
@@ -12694,7 +12796,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:4" ht="30">
       <c r="A453" s="1">
         <v>2700</v>
       </c>
@@ -12708,7 +12810,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:4" ht="45">
       <c r="A454" s="1">
         <v>2714</v>
       </c>
@@ -12722,7 +12824,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:4" ht="150">
       <c r="A455" s="1">
         <v>2715</v>
       </c>
@@ -12736,7 +12838,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:4" ht="105">
       <c r="A456" s="1">
         <v>2726</v>
       </c>
@@ -12750,7 +12852,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:4" ht="120">
       <c r="A457" s="1">
         <v>2734</v>
       </c>
@@ -12764,7 +12866,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:4" ht="150">
       <c r="A458" s="1">
         <v>2737</v>
       </c>
@@ -12778,7 +12880,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:4" ht="135">
       <c r="A459" s="1">
         <v>2738</v>
       </c>
@@ -12792,7 +12894,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:4" ht="75">
       <c r="A460" s="1">
         <v>2741</v>
       </c>
@@ -12806,7 +12908,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:4" ht="150">
       <c r="A461" s="1">
         <v>2745</v>
       </c>
@@ -12820,7 +12922,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:4" ht="150">
       <c r="A462" s="1">
         <v>2747</v>
       </c>
@@ -12834,7 +12936,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:4" ht="150">
       <c r="A463" s="1">
         <v>2748</v>
       </c>
@@ -12848,7 +12950,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:4" ht="150">
       <c r="A464" s="1">
         <v>2749</v>
       </c>
@@ -12862,7 +12964,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:4" ht="150">
       <c r="A465" s="1">
         <v>2762</v>
       </c>
@@ -12876,7 +12978,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:4" ht="90">
       <c r="A466" s="1">
         <v>2765</v>
       </c>
@@ -12890,7 +12992,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:4" ht="135">
       <c r="A467" s="1">
         <v>2766</v>
       </c>
@@ -12904,7 +13006,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:4" ht="150">
       <c r="A468" s="1">
         <v>2771</v>
       </c>
@@ -12918,7 +13020,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:4" ht="150">
       <c r="A469" s="1">
         <v>2772</v>
       </c>
@@ -12932,7 +13034,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:4" ht="150">
       <c r="A470" s="1">
         <v>2773</v>
       </c>
@@ -12946,7 +13048,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:4" ht="105">
       <c r="A471" s="1">
         <v>2775</v>
       </c>
@@ -12960,7 +13062,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:4" ht="150">
       <c r="A472" s="1">
         <v>2776</v>
       </c>
@@ -12974,7 +13076,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:4" ht="135">
       <c r="A473" s="1">
         <v>2780</v>
       </c>
@@ -12988,7 +13090,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:4" ht="120">
       <c r="A474" s="1">
         <v>2782</v>
       </c>
@@ -13002,7 +13104,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:4" ht="75">
       <c r="A475" s="1">
         <v>2786</v>
       </c>
@@ -13016,7 +13118,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:4" ht="150">
       <c r="A476" s="1">
         <v>2788</v>
       </c>
@@ -13030,7 +13132,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:4" ht="150">
       <c r="A477" s="1">
         <v>2790</v>
       </c>
@@ -13044,7 +13146,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:4" ht="120">
       <c r="A478" s="1">
         <v>2791</v>
       </c>
@@ -13058,7 +13160,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:4" ht="150">
       <c r="A479" s="1">
         <v>2792</v>
       </c>
@@ -13072,7 +13174,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:4" ht="105">
       <c r="A480" s="1">
         <v>2793</v>
       </c>
@@ -13086,7 +13188,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:4" ht="90">
       <c r="A481" s="1">
         <v>2794</v>
       </c>
@@ -13100,7 +13202,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:4" ht="105">
       <c r="A482" s="1">
         <v>2795</v>
       </c>
@@ -13114,7 +13216,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:4" ht="45">
       <c r="A483" s="1">
         <v>2800</v>
       </c>
@@ -13128,7 +13230,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:4" ht="150">
       <c r="A484" s="1">
         <v>2802</v>
       </c>
@@ -13142,7 +13244,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:4" ht="135">
       <c r="A485" s="1">
         <v>2803</v>
       </c>
@@ -13156,7 +13258,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:4" ht="135">
       <c r="A486" s="1">
         <v>2808</v>
       </c>
@@ -13170,7 +13272,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:4" ht="105">
       <c r="A487" s="1">
         <v>2816</v>
       </c>
@@ -13184,7 +13286,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:4" ht="120">
       <c r="A488" s="1">
         <v>2818</v>
       </c>
@@ -13198,7 +13300,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:4" ht="150">
       <c r="A489" s="1">
         <v>2837</v>
       </c>
@@ -13212,7 +13314,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:4" ht="105">
       <c r="A490" s="1">
         <v>2839</v>
       </c>
@@ -13226,7 +13328,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:4" ht="150">
       <c r="A491" s="1">
         <v>2840</v>
       </c>
@@ -13240,7 +13342,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:4" ht="150">
       <c r="A492" s="1">
         <v>2851</v>
       </c>
@@ -13254,7 +13356,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:4" ht="135">
       <c r="A493" s="1">
         <v>2861</v>
       </c>
@@ -13268,7 +13370,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:4" ht="150">
       <c r="A494" s="1">
         <v>2863</v>
       </c>
@@ -13282,7 +13384,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:4" ht="150">
       <c r="A495" s="1">
         <v>2864</v>
       </c>
@@ -13296,7 +13398,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:4" ht="150">
       <c r="A496" s="1">
         <v>2865</v>
       </c>
@@ -13310,7 +13412,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:4" ht="90">
       <c r="A497" s="1">
         <v>2866</v>
       </c>
@@ -13324,7 +13426,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:4" ht="150">
       <c r="A498" s="1">
         <v>2871</v>
       </c>
@@ -13338,7 +13440,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:4" ht="105">
       <c r="A499" s="1">
         <v>2880</v>
       </c>
@@ -13352,7 +13454,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:4" ht="150">
       <c r="A500" s="1">
         <v>2887</v>
       </c>
@@ -13366,7 +13468,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:4" ht="135">
       <c r="A501" s="1">
         <v>2891</v>
       </c>
@@ -13380,7 +13482,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:4" ht="150">
       <c r="A502" s="1">
         <v>2892</v>
       </c>
@@ -13394,7 +13496,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:4" ht="150">
       <c r="A503" s="1">
         <v>2893</v>
       </c>
@@ -13408,7 +13510,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:4" ht="150">
       <c r="A504" s="1">
         <v>2897</v>
       </c>
@@ -13422,7 +13524,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:4" ht="75">
       <c r="A505" s="1">
         <v>2898</v>
       </c>
@@ -13436,7 +13538,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:4" ht="90">
       <c r="A506" s="1">
         <v>2901</v>
       </c>
@@ -13450,7 +13552,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:4" ht="135">
       <c r="A507" s="1">
         <v>2902</v>
       </c>
@@ -13464,7 +13566,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:4" ht="150">
       <c r="A508" s="1">
         <v>2903</v>
       </c>
@@ -13478,7 +13580,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:4" ht="105">
       <c r="A509" s="1">
         <v>2907</v>
       </c>
@@ -13492,7 +13594,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:4" ht="150">
       <c r="A510" s="1">
         <v>2913</v>
       </c>
@@ -13506,7 +13608,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:4" ht="75">
       <c r="A511" s="1">
         <v>2920</v>
       </c>
@@ -13520,7 +13622,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:4" ht="150">
       <c r="A512" s="1">
         <v>2934</v>
       </c>
@@ -13534,7 +13636,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:4" ht="150">
       <c r="A513" s="1">
         <v>2938</v>
       </c>
@@ -13548,7 +13650,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:4" ht="150">
       <c r="A514" s="1">
         <v>2954</v>
       </c>
@@ -13562,7 +13664,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:4" ht="150">
       <c r="A515" s="1">
         <v>2955</v>
       </c>
@@ -13576,7 +13678,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:4" ht="150">
       <c r="A516" s="1">
         <v>2956</v>
       </c>
@@ -13590,7 +13692,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:4" ht="150">
       <c r="A517" s="1">
         <v>2964</v>
       </c>
@@ -13604,7 +13706,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:4" ht="150">
       <c r="A518" s="1">
         <v>2966</v>
       </c>
@@ -13618,7 +13720,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:4" ht="150">
       <c r="A519" s="1">
         <v>2968</v>
       </c>
@@ -13632,7 +13734,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:4" ht="105">
       <c r="A520" s="1">
         <v>2976</v>
       </c>
@@ -13646,7 +13748,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:4" ht="60">
       <c r="A521" s="1">
         <v>2982</v>
       </c>
@@ -13660,7 +13762,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:4" ht="90">
       <c r="A522" s="1">
         <v>2987</v>
       </c>
@@ -13674,7 +13776,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:4" ht="60">
       <c r="A523" s="1">
         <v>2992</v>
       </c>
@@ -13688,7 +13790,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:4" ht="150">
       <c r="A524" s="1">
         <v>3008</v>
       </c>
@@ -13702,7 +13804,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:4" ht="150">
       <c r="A525" s="1">
         <v>3009</v>
       </c>
@@ -13716,7 +13818,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:4" ht="90">
       <c r="A526" s="1">
         <v>3022</v>
       </c>
@@ -13730,7 +13832,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:4" ht="150">
       <c r="A527" s="1">
         <v>3023</v>
       </c>
@@ -13744,7 +13846,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:4" ht="150">
       <c r="A528" s="1">
         <v>3026</v>
       </c>
@@ -13758,7 +13860,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:4" ht="150">
       <c r="A529" s="1">
         <v>3038</v>
       </c>
@@ -13772,7 +13874,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:4" ht="150">
       <c r="A530" s="1">
         <v>3039</v>
       </c>
@@ -13786,7 +13888,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:4" ht="105">
       <c r="A531" s="1">
         <v>3044</v>
       </c>
@@ -13800,7 +13902,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:4" ht="45">
       <c r="A532" s="1">
         <v>3046</v>
       </c>
@@ -13814,7 +13916,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:4" ht="60">
       <c r="A533" s="1">
         <v>3049</v>
       </c>
@@ -13828,7 +13930,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:4" ht="150">
       <c r="A534" s="1">
         <v>3059</v>
       </c>
@@ -13842,7 +13944,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:4" ht="165">
       <c r="A535" s="1">
         <v>3061</v>
       </c>
@@ -13856,7 +13958,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:4" ht="150">
       <c r="A536" s="1">
         <v>3067</v>
       </c>
@@ -13870,7 +13972,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:4" ht="135">
       <c r="A537" s="1">
         <v>3068</v>
       </c>
@@ -13884,7 +13986,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:4" ht="90">
       <c r="A538" s="1">
         <v>3070</v>
       </c>
@@ -13898,7 +14000,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:4" ht="75">
       <c r="A539" s="1">
         <v>3082</v>
       </c>
@@ -13912,7 +14014,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:4" ht="45">
       <c r="A540" s="1">
         <v>3085</v>
       </c>
@@ -13926,7 +14028,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:4" ht="105">
       <c r="A541" s="1">
         <v>3086</v>
       </c>
@@ -13940,7 +14042,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:4" ht="150">
       <c r="A542" s="1">
         <v>3090</v>
       </c>
@@ -13954,7 +14056,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:4" ht="150">
       <c r="A543" s="1">
         <v>3092</v>
       </c>
@@ -13968,7 +14070,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:4" ht="150">
       <c r="A544" s="1">
         <v>3093</v>
       </c>
@@ -13982,7 +14084,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:4" ht="150">
       <c r="A545" s="1">
         <v>3099</v>
       </c>
@@ -13996,7 +14098,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:4" ht="135">
       <c r="A546" s="1">
         <v>3100</v>
       </c>
@@ -14010,7 +14112,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:4" ht="150">
       <c r="A547" s="1">
         <v>3102</v>
       </c>
@@ -14024,7 +14126,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:4" ht="75">
       <c r="A548" s="1">
         <v>3103</v>
       </c>
@@ -14038,7 +14140,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:4" ht="150">
       <c r="A549" s="1">
         <v>3107</v>
       </c>
@@ -14052,7 +14154,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:4" ht="135">
       <c r="A550" s="1">
         <v>3108</v>
       </c>
@@ -14066,7 +14168,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:4" ht="150">
       <c r="A551" s="1">
         <v>3110</v>
       </c>
@@ -14080,7 +14182,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:4" ht="75">
       <c r="A552" s="1">
         <v>3113</v>
       </c>
@@ -14094,7 +14196,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:4" ht="150">
       <c r="A553" s="1">
         <v>3120</v>
       </c>
@@ -14108,7 +14210,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:4" ht="90">
       <c r="A554" s="1">
         <v>3129</v>
       </c>
@@ -14122,7 +14224,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:4" ht="105">
       <c r="A555" s="1">
         <v>3135</v>
       </c>
@@ -14136,7 +14238,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:4" ht="75">
       <c r="A556" s="1">
         <v>3153</v>
       </c>
@@ -14150,7 +14252,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:4" ht="75">
       <c r="A557" s="1">
         <v>3156</v>
       </c>
@@ -14164,7 +14266,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:4" ht="75">
       <c r="A558" s="1">
         <v>3164</v>
       </c>
@@ -14178,7 +14280,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:4" ht="150">
       <c r="A559" s="1">
         <v>3165</v>
       </c>
@@ -14192,7 +14294,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:4" ht="120">
       <c r="A560" s="1">
         <v>3209</v>
       </c>
@@ -14206,7 +14308,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:4" ht="150">
       <c r="A561" s="1">
         <v>3210</v>
       </c>
@@ -14220,7 +14322,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:4" ht="135">
       <c r="A562" s="1">
         <v>3221</v>
       </c>
@@ -14234,7 +14336,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:4" ht="135">
       <c r="A563" s="1">
         <v>3226</v>
       </c>
@@ -14248,7 +14350,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:4" ht="90">
       <c r="A564" s="1">
         <v>3228</v>
       </c>
@@ -14262,7 +14364,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:4" ht="120">
       <c r="A565" s="1">
         <v>3229</v>
       </c>
@@ -14276,7 +14378,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:4" ht="135">
       <c r="A566" s="1">
         <v>3231</v>
       </c>
@@ -14290,7 +14392,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:4" ht="120">
       <c r="A567" s="1">
         <v>3244</v>
       </c>
@@ -14304,7 +14406,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:4" ht="150">
       <c r="A568" s="1">
         <v>3245</v>
       </c>
@@ -14318,7 +14420,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:4" ht="150">
       <c r="A569" s="1">
         <v>3256</v>
       </c>
@@ -14332,7 +14434,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:4" ht="150">
       <c r="A570" s="1">
         <v>3257</v>
       </c>
@@ -14346,7 +14448,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:4" ht="150">
       <c r="A571" s="1">
         <v>3258</v>
       </c>
@@ -14360,7 +14462,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:4" ht="75">
       <c r="A572" s="1">
         <v>3284</v>
       </c>
@@ -14374,7 +14476,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:4" ht="150">
       <c r="A573" s="1">
         <v>3285</v>
       </c>
@@ -14388,7 +14490,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:4" ht="75">
       <c r="A574" s="1">
         <v>3287</v>
       </c>
@@ -14402,7 +14504,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:4" ht="105">
       <c r="A575" s="1">
         <v>3289</v>
       </c>
@@ -14416,7 +14518,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:4" ht="150">
       <c r="A576" s="1">
         <v>3290</v>
       </c>
@@ -14430,7 +14532,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:4" ht="90">
       <c r="A577" s="1">
         <v>3292</v>
       </c>
@@ -14444,7 +14546,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:4" ht="135">
       <c r="A578" s="1">
         <v>3293</v>
       </c>
@@ -14458,7 +14560,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:4" ht="150">
       <c r="A579" s="1">
         <v>3300</v>
       </c>
@@ -14472,7 +14574,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:4" ht="75">
       <c r="A580" s="1">
         <v>3320</v>
       </c>
@@ -14486,7 +14588,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:4" ht="135">
       <c r="A581" s="1">
         <v>3327</v>
       </c>
@@ -14500,7 +14602,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:4" ht="120">
       <c r="A582" s="1">
         <v>3328</v>
       </c>
@@ -14514,7 +14616,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:4" ht="135">
       <c r="A583" s="1">
         <v>3334</v>
       </c>
@@ -14528,7 +14630,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:4" ht="105">
       <c r="A584" s="1">
         <v>3335</v>
       </c>
@@ -14542,7 +14644,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:4" ht="150">
       <c r="A585" s="1">
         <v>3337</v>
       </c>
@@ -14556,7 +14658,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:4" ht="150">
       <c r="A586" s="1">
         <v>3338</v>
       </c>
@@ -14570,7 +14672,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:4" ht="105">
       <c r="A587" s="1">
         <v>3339</v>
       </c>
@@ -14584,7 +14686,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:4" ht="150">
       <c r="A588" s="1">
         <v>3340</v>
       </c>
@@ -14598,7 +14700,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:4" ht="135">
       <c r="A589" s="1">
         <v>3350</v>
       </c>
@@ -14612,7 +14714,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:4" ht="75">
       <c r="A590" s="1">
         <v>3358</v>
       </c>
@@ -14626,7 +14728,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:4" ht="150">
       <c r="A591" s="1">
         <v>3363</v>
       </c>
@@ -14640,7 +14742,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:4" ht="135">
       <c r="A592" s="1">
         <v>3365</v>
       </c>
@@ -14654,7 +14756,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:4" ht="150">
       <c r="A593" s="1">
         <v>3369</v>
       </c>
@@ -14668,7 +14770,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:4" ht="135">
       <c r="A594" s="1">
         <v>3372</v>
       </c>
@@ -14682,7 +14784,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:4" ht="135">
       <c r="A595" s="1">
         <v>3373</v>
       </c>
@@ -14696,7 +14798,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:4" ht="135">
       <c r="A596" s="1">
         <v>3377</v>
       </c>
@@ -14710,7 +14812,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:4" ht="75">
       <c r="A597" s="1">
         <v>3381</v>
       </c>
@@ -14724,7 +14826,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:4" ht="150">
       <c r="A598" s="1">
         <v>3385</v>
       </c>
@@ -14738,7 +14840,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:4" ht="105">
       <c r="A599" s="1">
         <v>3387</v>
       </c>
@@ -14752,7 +14854,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:4" ht="150">
       <c r="A600" s="1">
         <v>3391</v>
       </c>
@@ -14766,7 +14868,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:4" ht="105">
       <c r="A601" s="1">
         <v>3396</v>
       </c>
@@ -14780,7 +14882,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:4" ht="120">
       <c r="A602" s="1">
         <v>3400</v>
       </c>
@@ -14794,7 +14896,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:4" ht="30">
       <c r="A603" s="1">
         <v>3409</v>
       </c>
@@ -14808,7 +14910,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:4" ht="150">
       <c r="A604" s="1">
         <v>3410</v>
       </c>
@@ -14822,7 +14924,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:4" ht="75">
       <c r="A605" s="1">
         <v>3416</v>
       </c>
@@ -14836,7 +14938,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:4" ht="75">
       <c r="A606" s="1">
         <v>3417</v>
       </c>
@@ -14850,7 +14952,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:4" ht="120">
       <c r="A607" s="1">
         <v>3423</v>
       </c>
@@ -14864,7 +14966,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:4" ht="165">
       <c r="A608" s="1">
         <v>3424</v>
       </c>
@@ -14878,7 +14980,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:4" ht="135">
       <c r="A609" s="1">
         <v>3432</v>
       </c>
@@ -14892,7 +14994,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:4" ht="165">
       <c r="A610" s="1">
         <v>3445</v>
       </c>
@@ -14906,7 +15008,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:4" ht="150">
       <c r="A611" s="1">
         <v>3447</v>
       </c>
@@ -14920,7 +15022,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:4" ht="150">
       <c r="A612" s="1">
         <v>3450</v>
       </c>
@@ -14934,7 +15036,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:4" ht="150">
       <c r="A613" s="1">
         <v>3451</v>
       </c>
@@ -14948,7 +15050,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:4" ht="90">
       <c r="A614" s="1">
         <v>3460</v>
       </c>
@@ -14962,7 +15064,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:4" ht="135">
       <c r="A615" s="1">
         <v>3466</v>
       </c>
@@ -14976,7 +15078,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:4" ht="135">
       <c r="A616" s="1">
         <v>3481</v>
       </c>
@@ -14990,7 +15092,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:4" ht="45">
       <c r="A617" s="1">
         <v>3482</v>
       </c>
@@ -15004,7 +15106,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:4" ht="135">
       <c r="A618" s="1">
         <v>3490</v>
       </c>
@@ -15018,7 +15120,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:4" ht="150">
       <c r="A619" s="1">
         <v>3492</v>
       </c>
@@ -15032,7 +15134,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:4" ht="105">
       <c r="A620" s="1">
         <v>3493</v>
       </c>
@@ -15046,7 +15148,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:4" ht="135">
       <c r="A621" s="1">
         <v>3495</v>
       </c>
@@ -15060,7 +15162,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:4" ht="75">
       <c r="A622" s="1">
         <v>3496</v>
       </c>
@@ -15074,7 +15176,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:4" ht="150">
       <c r="A623" s="1">
         <v>3505</v>
       </c>
@@ -15088,7 +15190,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:4" ht="150">
       <c r="A624" s="1">
         <v>3507</v>
       </c>
@@ -15102,7 +15204,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:4" ht="150">
       <c r="A625" s="1">
         <v>3509</v>
       </c>
@@ -15116,7 +15218,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:4" ht="150">
       <c r="A626" s="1">
         <v>3510</v>
       </c>
@@ -15130,7 +15232,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:4" ht="135">
       <c r="A627" s="1">
         <v>3517</v>
       </c>
@@ -15144,7 +15246,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:4" ht="135">
       <c r="A628" s="1">
         <v>3519</v>
       </c>
@@ -15158,7 +15260,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:4" ht="45">
       <c r="A629" s="1">
         <v>3520</v>
       </c>
@@ -15172,7 +15274,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:4" ht="150">
       <c r="A630" s="1">
         <v>3530</v>
       </c>
@@ -15186,7 +15288,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:4" ht="150">
       <c r="A631" s="1">
         <v>3537</v>
       </c>
@@ -15200,7 +15302,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:4" ht="135">
       <c r="A632" s="1">
         <v>3538</v>
       </c>
@@ -15214,7 +15316,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:4" ht="60">
       <c r="A633" s="1">
         <v>3546</v>
       </c>
@@ -15228,7 +15330,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:4" ht="105">
       <c r="A634" s="1">
         <v>3551</v>
       </c>
@@ -15242,7 +15344,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:4" ht="120">
       <c r="A635" s="1">
         <v>3554</v>
       </c>
@@ -15256,7 +15358,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:4" ht="165">
       <c r="A636" s="1">
         <v>3556</v>
       </c>
@@ -15270,7 +15372,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:4" ht="105">
       <c r="A637" s="1">
         <v>3560</v>
       </c>
@@ -15284,7 +15386,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:4" ht="150">
       <c r="A638" s="1">
         <v>3562</v>
       </c>
@@ -15298,7 +15400,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:4" ht="105">
       <c r="A639" s="1">
         <v>3564</v>
       </c>
@@ -15312,7 +15414,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:4" ht="75">
       <c r="A640" s="1">
         <v>3565</v>
       </c>
@@ -15326,7 +15428,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:4" ht="90">
       <c r="A641" s="1">
         <v>3567</v>
       </c>
@@ -15340,7 +15442,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:4" ht="150">
       <c r="A642" s="1">
         <v>3569</v>
       </c>
@@ -15354,7 +15456,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:4" ht="150">
       <c r="A643" s="1">
         <v>3577</v>
       </c>
@@ -15368,7 +15470,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:4" ht="135">
       <c r="A644" s="1">
         <v>3588</v>
       </c>
@@ -15382,7 +15484,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:4" ht="150">
       <c r="A645" s="1">
         <v>3593</v>
       </c>
@@ -15396,7 +15498,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:4" ht="120">
       <c r="A646" s="1">
         <v>3594</v>
       </c>
@@ -15410,7 +15512,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:4" ht="60">
       <c r="A647" s="1">
         <v>3596</v>
       </c>
@@ -15424,7 +15526,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:4" ht="150">
       <c r="A648" s="1">
         <v>3598</v>
       </c>
@@ -15438,7 +15540,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:4" ht="150">
       <c r="A649" s="1">
         <v>3602</v>
       </c>
@@ -15452,7 +15554,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:4" ht="45">
       <c r="A650" s="1">
         <v>3610</v>
       </c>
@@ -15466,7 +15568,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:4" ht="150">
       <c r="A651" s="1">
         <v>3614</v>
       </c>
@@ -15480,7 +15582,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:4" ht="150">
       <c r="A652" s="1">
         <v>3615</v>
       </c>
@@ -15494,7 +15596,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:4" ht="150">
       <c r="A653" s="1">
         <v>3616</v>
       </c>
@@ -15508,7 +15610,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:4" ht="30">
       <c r="A654" s="1">
         <v>3617</v>
       </c>
@@ -15522,7 +15624,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:4" ht="165">
       <c r="A655" s="1">
         <v>3618</v>
       </c>
@@ -15536,7 +15638,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:4" ht="30">
       <c r="A656" s="1">
         <v>3629</v>
       </c>
@@ -15550,7 +15652,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:4" ht="120">
       <c r="A657" s="1">
         <v>3630</v>
       </c>
@@ -15564,7 +15666,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:4" ht="75">
       <c r="A658" s="1">
         <v>3635</v>
       </c>
@@ -15578,7 +15680,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:4" ht="75">
       <c r="A659" s="1">
         <v>3640</v>
       </c>
@@ -15592,7 +15694,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:4" ht="150">
       <c r="A660" s="1">
         <v>3648</v>
       </c>
@@ -15606,7 +15708,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:4" ht="135">
       <c r="A661" s="1">
         <v>3649</v>
       </c>
@@ -15620,7 +15722,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:4" ht="135">
       <c r="A662" s="1">
         <v>3650</v>
       </c>
@@ -15634,7 +15736,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:4" ht="135">
       <c r="A663" s="1">
         <v>3652</v>
       </c>
@@ -15648,7 +15750,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:4" ht="150">
       <c r="A664" s="1">
         <v>3653</v>
       </c>
@@ -15662,7 +15764,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:4" ht="30">
       <c r="A665" s="1">
         <v>3654</v>
       </c>
@@ -15676,7 +15778,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:4" ht="75">
       <c r="A666" s="1">
         <v>3656</v>
       </c>
@@ -15690,7 +15792,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:4" ht="75">
       <c r="A667" s="1">
         <v>3662</v>
       </c>
@@ -15704,7 +15806,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:4" ht="150">
       <c r="A668" s="1">
         <v>3663</v>
       </c>
@@ -15718,7 +15820,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:4" ht="45">
       <c r="A669" s="1">
         <v>3664</v>
       </c>
@@ -15732,7 +15834,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:4" ht="90">
       <c r="A670" s="1">
         <v>3672</v>
       </c>
@@ -15746,7 +15848,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:4" ht="165">
       <c r="A671" s="1">
         <v>3678</v>
       </c>
@@ -15760,7 +15862,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:4" ht="165">
       <c r="A672" s="1">
         <v>3679</v>
       </c>
@@ -15774,7 +15876,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:4" ht="90">
       <c r="A673" s="1">
         <v>3699</v>
       </c>
@@ -15788,7 +15890,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:4" ht="105">
       <c r="A674" s="1">
         <v>3701</v>
       </c>
@@ -15802,7 +15904,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:4" ht="135">
       <c r="A675" s="1">
         <v>3709</v>
       </c>
@@ -15816,7 +15918,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:4" ht="165">
       <c r="A676" s="1">
         <v>3714</v>
       </c>
@@ -15830,7 +15932,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:4" ht="150">
       <c r="A677" s="1">
         <v>3722</v>
       </c>
@@ -15844,7 +15946,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:4" ht="120">
       <c r="A678" s="1">
         <v>3723</v>
       </c>
@@ -15858,7 +15960,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:4" ht="150">
       <c r="A679" s="1">
         <v>3724</v>
       </c>
@@ -15872,7 +15974,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:4" ht="150">
       <c r="A680" s="1">
         <v>3725</v>
       </c>
@@ -15886,7 +15988,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:4" ht="135">
       <c r="A681" s="1">
         <v>3738</v>
       </c>
@@ -15900,7 +16002,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:4" ht="120">
       <c r="A682" s="1">
         <v>3741</v>
       </c>
@@ -15914,7 +16016,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:4" ht="150">
       <c r="A683" s="1">
         <v>3742</v>
       </c>
@@ -15928,7 +16030,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:4" ht="30">
       <c r="A684" s="1">
         <v>3743</v>
       </c>
@@ -15942,7 +16044,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:4" ht="120">
       <c r="A685" s="1">
         <v>3749</v>
       </c>
@@ -15956,7 +16058,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:4" ht="150">
       <c r="A686" s="1">
         <v>3755</v>
       </c>
@@ -15970,7 +16072,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:4" ht="150">
       <c r="A687" s="1">
         <v>3758</v>
       </c>
@@ -15984,7 +16086,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:4" ht="150">
       <c r="A688" s="1">
         <v>3763</v>
       </c>
@@ -15998,7 +16100,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:4" ht="135">
       <c r="A689" s="1">
         <v>3764</v>
       </c>
@@ -16012,7 +16114,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:4" ht="150">
       <c r="A690" s="1">
         <v>3765</v>
       </c>
@@ -16026,7 +16128,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:4" ht="75">
       <c r="A691" s="1">
         <v>3768</v>
       </c>
@@ -16040,7 +16142,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:4" ht="75">
       <c r="A692" s="1">
         <v>3769</v>
       </c>
@@ -16054,7 +16156,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:4" ht="120">
       <c r="A693" s="1">
         <v>3775</v>
       </c>
@@ -16068,7 +16170,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:4" ht="15">
       <c r="A694" s="1">
         <v>3787</v>
       </c>
@@ -16082,7 +16184,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:4" ht="90">
       <c r="A695" s="1">
         <v>3791</v>
       </c>
@@ -16096,7 +16198,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:4" ht="90">
       <c r="A696" s="1">
         <v>3810</v>
       </c>
@@ -16110,7 +16212,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:4" ht="150">
       <c r="A697" s="1">
         <v>3811</v>
       </c>
@@ -16124,7 +16226,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:4" ht="60">
       <c r="A698" s="1">
         <v>3814</v>
       </c>
@@ -16138,7 +16240,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:4" ht="150">
       <c r="A699" s="1">
         <v>3816</v>
       </c>
@@ -16152,7 +16254,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:4" ht="150">
       <c r="A700" s="1">
         <v>3817</v>
       </c>
@@ -16166,7 +16268,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:4" ht="135">
       <c r="A701" s="1">
         <v>3819</v>
       </c>
@@ -16180,7 +16282,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:4" ht="150">
       <c r="A702" s="1">
         <v>3820</v>
       </c>
@@ -16194,7 +16296,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:4" ht="90">
       <c r="A703" s="1">
         <v>3822</v>
       </c>
@@ -16208,7 +16310,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:4" ht="90">
       <c r="A704" s="1">
         <v>3823</v>
       </c>
@@ -16222,7 +16324,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:4" ht="120">
       <c r="A705" s="1">
         <v>3829</v>
       </c>
@@ -16236,7 +16338,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:4" ht="75">
       <c r="A706" s="1">
         <v>3830</v>
       </c>
@@ -16250,7 +16352,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:4" ht="75">
       <c r="A707" s="1">
         <v>3838</v>
       </c>
@@ -16264,7 +16366,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:4" ht="150">
       <c r="A708" s="1">
         <v>3843</v>
       </c>
@@ -16278,7 +16380,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:4" ht="105">
       <c r="A709" s="1">
         <v>3844</v>
       </c>
@@ -16292,7 +16394,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:4" ht="150">
       <c r="A710" s="1">
         <v>3847</v>
       </c>
@@ -16306,7 +16408,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:4" ht="135">
       <c r="A711" s="1">
         <v>3850</v>
       </c>
@@ -16320,7 +16422,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:4" ht="150">
       <c r="A712" s="1">
         <v>3862</v>
       </c>
@@ -16334,7 +16436,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:4" ht="90">
       <c r="A713" s="1">
         <v>3867</v>
       </c>
@@ -16348,7 +16450,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:4" ht="135">
       <c r="A714" s="1">
         <v>3878</v>
       </c>
@@ -16362,7 +16464,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:4" ht="135">
       <c r="A715" s="1">
         <v>3884</v>
       </c>
@@ -16376,7 +16478,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:4" ht="45">
       <c r="A716" s="1">
         <v>3889</v>
       </c>
@@ -16390,7 +16492,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:4" ht="105">
       <c r="A717" s="1">
         <v>3909</v>
       </c>
@@ -16404,7 +16506,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:4" ht="150">
       <c r="A718" s="1">
         <v>3910</v>
       </c>
@@ -16418,7 +16520,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:4" ht="135">
       <c r="A719" s="1">
         <v>3913</v>
       </c>
@@ -16432,7 +16534,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:4" ht="150">
       <c r="A720" s="1">
         <v>3914</v>
       </c>
@@ -16446,7 +16548,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:4" ht="105">
       <c r="A721" s="1">
         <v>3919</v>
       </c>
@@ -16460,7 +16562,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:4" ht="150">
       <c r="A722" s="1">
         <v>3923</v>
       </c>
@@ -16474,7 +16576,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:4" ht="45">
       <c r="A723" s="1">
         <v>3925</v>
       </c>
@@ -16488,7 +16590,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:4" ht="135">
       <c r="A724" s="1">
         <v>3927</v>
       </c>
@@ -16502,7 +16604,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:4" ht="150">
       <c r="A725" s="1">
         <v>3941</v>
       </c>
@@ -16516,7 +16618,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:4" ht="120">
       <c r="A726" s="1">
         <v>3944</v>
       </c>
@@ -16530,7 +16632,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:4" ht="150">
       <c r="A727" s="1">
         <v>3945</v>
       </c>
@@ -16544,7 +16646,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:4" ht="150">
       <c r="A728" s="1">
         <v>3946</v>
       </c>
@@ -16558,7 +16660,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:4" ht="90">
       <c r="A729" s="1">
         <v>3947</v>
       </c>
@@ -16572,7 +16674,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:4" ht="45">
       <c r="A730" s="1">
         <v>3951</v>
       </c>
@@ -16586,7 +16688,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:4" ht="150">
       <c r="A731" s="1">
         <v>3953</v>
       </c>
@@ -16600,7 +16702,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:4" ht="120">
       <c r="A732" s="1">
         <v>3959</v>
       </c>
@@ -16614,7 +16716,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:4" ht="150">
       <c r="A733" s="1">
         <v>3962</v>
       </c>
@@ -16628,7 +16730,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:4" ht="75">
       <c r="A734" s="1">
         <v>3963</v>
       </c>
@@ -16642,7 +16744,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:4" ht="150">
       <c r="A735" s="1">
         <v>3965</v>
       </c>
@@ -16656,7 +16758,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:4" ht="105">
       <c r="A736" s="1">
         <v>3969</v>
       </c>
@@ -16670,7 +16772,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:4" ht="75">
       <c r="A737" s="1">
         <v>3971</v>
       </c>
@@ -16684,7 +16786,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:4" ht="150">
       <c r="A738" s="1">
         <v>3974</v>
       </c>
@@ -16698,7 +16800,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:4" ht="150">
       <c r="A739" s="1">
         <v>3975</v>
       </c>
@@ -16712,7 +16814,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:4" ht="135">
       <c r="A740" s="1">
         <v>3979</v>
       </c>
@@ -16726,7 +16828,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:4" ht="150">
       <c r="A741" s="1">
         <v>3986</v>
       </c>
@@ -16740,7 +16842,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:4" ht="90">
       <c r="A742" s="1">
         <v>3993</v>
       </c>
@@ -16754,7 +16856,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:4" ht="15">
       <c r="A743" s="1">
         <v>4014</v>
       </c>
@@ -16768,7 +16870,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:4" ht="60">
       <c r="A744" s="1">
         <v>4019</v>
       </c>
@@ -16782,7 +16884,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:4" ht="150">
       <c r="A745" s="1">
         <v>4022</v>
       </c>
@@ -16796,7 +16898,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:4" ht="150">
       <c r="A746" s="1">
         <v>4023</v>
       </c>
@@ -16810,7 +16912,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:4" ht="75">
       <c r="A747" s="1">
         <v>4029</v>
       </c>
@@ -16824,7 +16926,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:4" ht="150">
       <c r="A748" s="1">
         <v>4031</v>
       </c>
@@ -16838,7 +16940,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:4" ht="75">
       <c r="A749" s="1">
         <v>4032</v>
       </c>
@@ -16852,7 +16954,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:4" ht="150">
       <c r="A750" s="1">
         <v>4034</v>
       </c>
@@ -16866,7 +16968,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:4" ht="150">
       <c r="A751" s="1">
         <v>4035</v>
       </c>
@@ -16880,7 +16982,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:4" ht="120">
       <c r="A752" s="1">
         <v>4036</v>
       </c>
@@ -16894,7 +16996,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:4" ht="135">
       <c r="A753" s="1">
         <v>4040</v>
       </c>
@@ -16908,7 +17010,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:4" ht="135">
       <c r="A754" s="1">
         <v>4044</v>
       </c>
@@ -16922,7 +17024,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:4" ht="90">
       <c r="A755" s="1">
         <v>4045</v>
       </c>
@@ -16936,7 +17038,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:4" ht="90">
       <c r="A756" s="1">
         <v>4046</v>
       </c>
@@ -16950,7 +17052,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:4" ht="135">
       <c r="A757" s="1">
         <v>4049</v>
       </c>
@@ -16964,7 +17066,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:4" ht="135">
       <c r="A758" s="1">
         <v>4052</v>
       </c>
@@ -16978,7 +17080,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:4" ht="105">
       <c r="A759" s="1">
         <v>4058</v>
       </c>
@@ -16992,7 +17094,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:4" ht="90">
       <c r="A760" s="1">
         <v>4063</v>
       </c>
@@ -17006,7 +17108,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:4" ht="75">
       <c r="A761" s="1">
         <v>4070</v>
       </c>
@@ -17020,7 +17122,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:4" ht="150">
       <c r="A762" s="1">
         <v>4073</v>
       </c>
@@ -17034,7 +17136,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:4" ht="45">
       <c r="A763" s="1">
         <v>4074</v>
       </c>
@@ -17048,7 +17150,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:4" ht="75">
       <c r="A764" s="1">
         <v>4079</v>
       </c>
@@ -17062,7 +17164,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:4" ht="120">
       <c r="A765" s="1">
         <v>4081</v>
       </c>
@@ -17076,7 +17178,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:4" ht="75">
       <c r="A766" s="1">
         <v>4100</v>
       </c>
@@ -17090,7 +17192,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:4" ht="75">
       <c r="A767" s="1">
         <v>4104</v>
       </c>
@@ -17104,7 +17206,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:4" ht="150">
       <c r="A768" s="1">
         <v>4105</v>
       </c>
@@ -17118,7 +17220,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:4" ht="150">
       <c r="A769" s="1">
         <v>4109</v>
       </c>
@@ -17132,7 +17234,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:4" ht="150">
       <c r="A770" s="1">
         <v>4110</v>
       </c>
@@ -17146,7 +17248,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:4" ht="105">
       <c r="A771" s="1">
         <v>4114</v>
       </c>
@@ -17160,7 +17262,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:4" ht="150">
       <c r="A772" s="1">
         <v>4118</v>
       </c>
@@ -17174,7 +17276,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:4" ht="150">
       <c r="A773" s="1">
         <v>4119</v>
       </c>
@@ -17188,7 +17290,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:4" ht="150">
       <c r="A774" s="1">
         <v>4125</v>
       </c>
@@ -17202,7 +17304,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:4" ht="90">
       <c r="A775" s="1">
         <v>4130</v>
       </c>
@@ -17216,7 +17318,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:4" ht="75">
       <c r="A776" s="1">
         <v>4134</v>
       </c>
@@ -17230,7 +17332,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:4" ht="150">
       <c r="A777" s="1">
         <v>4135</v>
       </c>
@@ -17244,7 +17346,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:4" ht="90">
       <c r="A778" s="1">
         <v>4136</v>
       </c>
@@ -17258,7 +17360,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:4" ht="150">
       <c r="A779" s="1">
         <v>4140</v>
       </c>
@@ -17272,7 +17374,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:4" ht="105">
       <c r="A780" s="1">
         <v>4144</v>
       </c>
@@ -17286,7 +17388,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:4" ht="105">
       <c r="A781" s="1">
         <v>4145</v>
       </c>
@@ -17300,7 +17402,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:4" ht="165">
       <c r="A782" s="1">
         <v>4146</v>
       </c>
@@ -17314,7 +17416,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:4" ht="15">
       <c r="A783" s="1">
         <v>4147</v>
       </c>
@@ -17328,7 +17430,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:4" ht="75">
       <c r="A784" s="1">
         <v>4155</v>
       </c>
@@ -17342,7 +17444,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:4" ht="150">
       <c r="A785" s="1">
         <v>4156</v>
       </c>
@@ -17356,7 +17458,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:4" ht="150">
       <c r="A786" s="1">
         <v>4157</v>
       </c>
@@ -17370,7 +17472,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:4" ht="60">
       <c r="A787" s="1">
         <v>4162</v>
       </c>
@@ -17384,7 +17486,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:4" ht="150">
       <c r="A788" s="1">
         <v>4172</v>
       </c>
@@ -17398,7 +17500,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:4" ht="105">
       <c r="A789" s="1">
         <v>4176</v>
       </c>
@@ -17412,7 +17514,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:4" ht="150">
       <c r="A790" s="1">
         <v>4180</v>
       </c>
@@ -17426,7 +17528,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:4" ht="30">
       <c r="A791" s="1">
         <v>4182</v>
       </c>
@@ -17440,7 +17542,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:4" ht="150">
       <c r="A792" s="1">
         <v>4183</v>
       </c>
@@ -17454,7 +17556,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:4" ht="150">
       <c r="A793" s="1">
         <v>4192</v>
       </c>
@@ -17468,7 +17570,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:4" ht="45">
       <c r="A794" s="1">
         <v>4199</v>
       </c>
@@ -17482,7 +17584,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:4" ht="135">
       <c r="A795" s="1">
         <v>4201</v>
       </c>
@@ -17496,7 +17598,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:4" ht="135">
       <c r="A796" s="1">
         <v>4203</v>
       </c>
@@ -17510,7 +17612,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:4" ht="135">
       <c r="A797" s="1">
         <v>4204</v>
       </c>
@@ -17524,7 +17626,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:4" ht="150">
       <c r="A798" s="1">
         <v>4206</v>
       </c>
@@ -17538,7 +17640,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:4" ht="135">
       <c r="A799" s="1">
         <v>4212</v>
       </c>
@@ -17552,7 +17654,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:4" ht="90">
       <c r="A800" s="1">
         <v>4219</v>
       </c>
@@ -17566,7 +17668,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:4" ht="90">
       <c r="A801" s="1">
         <v>4220</v>
       </c>
@@ -17580,7 +17682,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:4" ht="90">
       <c r="A802" s="1">
         <v>4222</v>
       </c>
@@ -17594,7 +17696,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:4" ht="120">
       <c r="A803" s="1">
         <v>4223</v>
       </c>
@@ -17608,7 +17710,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:4" ht="150">
       <c r="A804" s="1">
         <v>4238</v>
       </c>
@@ -17622,7 +17724,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:4" ht="135">
       <c r="A805" s="1">
         <v>4244</v>
       </c>
@@ -17636,7 +17738,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:4" ht="150">
       <c r="A806" s="1">
         <v>4251</v>
       </c>
@@ -17650,7 +17752,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:4" ht="135">
       <c r="A807" s="1">
         <v>4256</v>
       </c>
@@ -17664,7 +17766,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:4" ht="30">
       <c r="A808" s="1">
         <v>4267</v>
       </c>
@@ -17678,7 +17780,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:4" ht="120">
       <c r="A809" s="1">
         <v>4270</v>
       </c>
@@ -17692,7 +17794,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:4" ht="150">
       <c r="A810" s="1">
         <v>4272</v>
       </c>
@@ -17706,7 +17808,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:4" ht="135">
       <c r="A811" s="1">
         <v>4276</v>
       </c>
@@ -17720,7 +17822,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:4" ht="180">
       <c r="A812" s="1">
         <v>4298</v>
       </c>
@@ -17734,7 +17836,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:4" ht="135">
       <c r="A813" s="1">
         <v>4306</v>
       </c>
@@ -17748,7 +17850,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:4" ht="120">
       <c r="A814" s="1">
         <v>4310</v>
       </c>
@@ -17762,7 +17864,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:4" ht="150">
       <c r="A815" s="1">
         <v>4318</v>
       </c>
@@ -17776,7 +17878,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:4" ht="150">
       <c r="A816" s="1">
         <v>4337</v>
       </c>
@@ -17790,7 +17892,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:4" ht="60">
       <c r="A817" s="1">
         <v>4338</v>
       </c>
@@ -17804,7 +17906,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:4" ht="150">
       <c r="A818" s="1">
         <v>4339</v>
       </c>
@@ -17818,7 +17920,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:4" ht="75">
       <c r="A819" s="1">
         <v>4347</v>
       </c>
@@ -17832,7 +17934,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:4" ht="120">
       <c r="A820" s="1">
         <v>4357</v>
       </c>
@@ -17846,7 +17948,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:4" ht="150">
       <c r="A821" s="1">
         <v>4360</v>
       </c>
@@ -17860,7 +17962,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:4" ht="30">
       <c r="A822" s="1">
         <v>4362</v>
       </c>
@@ -17874,7 +17976,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:4" ht="150">
       <c r="A823" s="1">
         <v>4365</v>
       </c>
@@ -17888,7 +17990,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:4" ht="150">
       <c r="A824" s="1">
         <v>4380</v>
       </c>
@@ -17902,7 +18004,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:4" ht="165">
       <c r="A825" s="1">
         <v>4383</v>
       </c>
@@ -17916,7 +18018,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:4" ht="105">
       <c r="A826" s="1">
         <v>4385</v>
       </c>
@@ -17930,7 +18032,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:4" ht="135">
       <c r="A827" s="1">
         <v>4386</v>
       </c>
@@ -17944,7 +18046,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:4" ht="135">
       <c r="A828" s="1">
         <v>4389</v>
       </c>
@@ -17958,7 +18060,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:4" ht="105">
       <c r="A829" s="1">
         <v>4392</v>
       </c>
@@ -17972,7 +18074,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:4" ht="135">
       <c r="A830" s="1">
         <v>4395</v>
       </c>
@@ -17986,7 +18088,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:4" ht="15">
       <c r="A831" s="1">
         <v>4396</v>
       </c>
@@ -18000,7 +18102,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:4" ht="135">
       <c r="A832" s="1">
         <v>4397</v>
       </c>
@@ -18014,7 +18116,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:4" ht="105">
       <c r="A833" s="1">
         <v>4406</v>
       </c>
@@ -18028,7 +18130,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:4" ht="120">
       <c r="A834" s="1">
         <v>4412</v>
       </c>
@@ -18042,7 +18144,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:4" ht="105">
       <c r="A835" s="1">
         <v>4419</v>
       </c>
@@ -18056,7 +18158,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="162" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:4" ht="180">
       <c r="A836" s="1">
         <v>4426</v>
       </c>
@@ -18070,7 +18172,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:4" ht="135">
       <c r="A837" s="1">
         <v>4437</v>
       </c>
@@ -18084,7 +18186,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:4" ht="135">
       <c r="A838" s="1">
         <v>4443</v>
       </c>
@@ -18098,7 +18200,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:4" ht="135">
       <c r="A839" s="1">
         <v>4445</v>
       </c>
@@ -18112,7 +18214,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:4" ht="135">
       <c r="A840" s="1">
         <v>4446</v>
       </c>
@@ -18126,7 +18228,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:4" ht="135">
       <c r="A841" s="1">
         <v>4448</v>
       </c>
@@ -18140,7 +18242,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:4" ht="60">
       <c r="A842" s="1">
         <v>4454</v>
       </c>
@@ -18154,7 +18256,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:4" ht="135">
       <c r="A843" s="1">
         <v>4468</v>
       </c>
@@ -18168,7 +18270,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:4" ht="120">
       <c r="A844" s="1">
         <v>4473</v>
       </c>
@@ -18182,7 +18284,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:4" ht="75">
       <c r="A845" s="1">
         <v>4474</v>
       </c>
@@ -18196,7 +18298,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:4" ht="165">
       <c r="A846" s="1">
         <v>4479</v>
       </c>
@@ -18210,7 +18312,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:4" ht="150">
       <c r="A847" s="1">
         <v>4485</v>
       </c>
@@ -18224,7 +18326,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:4" ht="90">
       <c r="A848" s="1">
         <v>4499</v>
       </c>
@@ -18238,7 +18340,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:4" ht="150">
       <c r="A849" s="1">
         <v>4503</v>
       </c>
@@ -18252,7 +18354,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:4" ht="165">
       <c r="A850" s="1">
         <v>4506</v>
       </c>
@@ -18266,7 +18368,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:4" ht="150">
       <c r="A851" s="1">
         <v>4509</v>
       </c>
@@ -18280,7 +18382,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:4" ht="150">
       <c r="A852" s="1">
         <v>4510</v>
       </c>
@@ -18294,7 +18396,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:4" ht="150">
       <c r="A853" s="1">
         <v>4512</v>
       </c>
@@ -18308,7 +18410,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:4" ht="135">
       <c r="A854" s="1">
         <v>4515</v>
       </c>
@@ -18322,7 +18424,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:4" ht="75">
       <c r="A855" s="1">
         <v>4516</v>
       </c>
@@ -18336,7 +18438,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:4" ht="135">
       <c r="A856" s="1">
         <v>4517</v>
       </c>
@@ -18350,7 +18452,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:4" ht="60">
       <c r="A857" s="1">
         <v>4518</v>
       </c>
@@ -18364,7 +18466,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:4" ht="105">
       <c r="A858" s="1">
         <v>4529</v>
       </c>
@@ -18378,7 +18480,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:4" ht="150">
       <c r="A859" s="1">
         <v>4530</v>
       </c>
@@ -18392,7 +18494,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:4" ht="105">
       <c r="A860" s="1">
         <v>4535</v>
       </c>
@@ -18406,7 +18508,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:4" ht="150">
       <c r="A861" s="1">
         <v>4536</v>
       </c>
@@ -18420,7 +18522,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:4" ht="120">
       <c r="A862" s="1">
         <v>4538</v>
       </c>
@@ -18434,7 +18536,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:4" ht="150">
       <c r="A863" s="1">
         <v>4541</v>
       </c>
@@ -18448,7 +18550,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:4" ht="135">
       <c r="A864" s="1">
         <v>4544</v>
       </c>
@@ -18462,7 +18564,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:4" ht="120">
       <c r="A865" s="1">
         <v>4573</v>
       </c>
@@ -18476,7 +18578,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:4" ht="165">
       <c r="A866" s="1">
         <v>4579</v>
       </c>
@@ -18490,7 +18592,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:4" ht="75">
       <c r="A867" s="1">
         <v>4590</v>
       </c>
@@ -18504,7 +18606,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:4" ht="75">
       <c r="A868" s="1">
         <v>4595</v>
       </c>
@@ -18518,7 +18620,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:4" ht="150">
       <c r="A869" s="1">
         <v>4607</v>
       </c>
@@ -18532,7 +18634,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:4" ht="150">
       <c r="A870" s="1">
         <v>4622</v>
       </c>
@@ -18546,7 +18648,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:4" ht="150">
       <c r="A871" s="1">
         <v>4623</v>
       </c>
@@ -18560,7 +18662,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:4" ht="135">
       <c r="A872" s="1">
         <v>4629</v>
       </c>
@@ -18574,7 +18676,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:4" ht="150">
       <c r="A873" s="1">
         <v>4638</v>
       </c>
@@ -18588,7 +18690,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:4" ht="135">
       <c r="A874" s="1">
         <v>4664</v>
       </c>
@@ -18602,7 +18704,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:4" ht="150">
       <c r="A875" s="1">
         <v>4670</v>
       </c>
@@ -18616,7 +18718,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:4" ht="135">
       <c r="A876" s="1">
         <v>4679</v>
       </c>
@@ -18630,7 +18732,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:4" ht="75">
       <c r="A877" s="1">
         <v>4689</v>
       </c>
@@ -18644,7 +18746,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:4" ht="150">
       <c r="A878" s="1">
         <v>4690</v>
       </c>
@@ -18658,7 +18760,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:4" ht="150">
       <c r="A879" s="1">
         <v>4696</v>
       </c>
@@ -18672,7 +18774,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:4" ht="165">
       <c r="A880" s="1">
         <v>4705</v>
       </c>
@@ -18686,7 +18788,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:4" ht="90">
       <c r="A881" s="1">
         <v>4707</v>
       </c>
@@ -18700,7 +18802,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:4" ht="135">
       <c r="A882" s="1">
         <v>4721</v>
       </c>
@@ -18714,7 +18816,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:4" ht="135">
       <c r="A883" s="1">
         <v>4722</v>
       </c>
@@ -18728,7 +18830,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:4" ht="135">
       <c r="A884" s="1">
         <v>4728</v>
       </c>
@@ -18742,7 +18844,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:4" ht="150">
       <c r="A885" s="1">
         <v>4729</v>
       </c>
@@ -18756,7 +18858,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:4" ht="150">
       <c r="A886" s="1">
         <v>4732</v>
       </c>
@@ -18770,7 +18872,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:4" ht="60">
       <c r="A887" s="1">
         <v>4733</v>
       </c>
@@ -18784,7 +18886,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:4" ht="150">
       <c r="A888" s="1">
         <v>4739</v>
       </c>
@@ -18798,7 +18900,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:4" ht="150">
       <c r="A889" s="1">
         <v>4745</v>
       </c>
@@ -18812,7 +18914,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:4" ht="150">
       <c r="A890" s="1">
         <v>4746</v>
       </c>
@@ -18826,7 +18928,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:4" ht="150">
       <c r="A891" s="1">
         <v>4761</v>
       </c>
@@ -18840,7 +18942,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:4" ht="75">
       <c r="A892" s="1">
         <v>4765</v>
       </c>

--- a/code/tweets_data.xlsx
+++ b/code/tweets_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1987">
   <si>
     <t>created_at</t>
   </si>
@@ -6014,6 +6014,14 @@
   </si>
   <si>
     <t>Jobs, jobs, jobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Inc., </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bring job back, tax cut</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6410,9 +6418,9 @@
   <dimension ref="A1:G892"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A865" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A890" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D867" sqref="D867"/>
+      <selection pane="bottomLeft" activeCell="F892" sqref="F892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18661,7 +18669,16 @@
         <v>1754</v>
       </c>
       <c r="D872" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E872" s="4" t="s">
         <v>1819</v>
+      </c>
+      <c r="F872" s="4">
+        <v>1</v>
+      </c>
+      <c r="G872" s="4" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="873" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">

--- a/code/tweets_data.xlsx
+++ b/code/tweets_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzm34\Documents\GitHub\TrumpTweetsPrivate\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C283B-78FE-4A13-B896-B8D884C528D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E2204-1CA0-4436-9A77-B2B7158970BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/code/tweets_data.xlsx
+++ b/code/tweets_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzm34\Documents\GitHub\TrumpTweetsPrivate\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849E2204-1CA0-4436-9A77-B2B7158970BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C283B-78FE-4A13-B896-B8D884C528D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="E303" sqref="E303"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
